--- a/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Create_PCase_Positive_Alien_POE3.xlsx
+++ b/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Create_PCase_Positive_Alien_POE3.xlsx
@@ -21,7 +21,6 @@
     <externalReference r:id="rId11"/>
     <externalReference r:id="rId12"/>
     <externalReference r:id="rId13"/>
-    <externalReference r:id="rId14"/>
   </externalReferences>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -1432,10 +1431,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1470,24 +1469,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1495,6 +1478,14 @@
     <font>
       <b/>
       <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1509,14 +1500,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1525,6 +1509,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1539,7 +1531,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1553,11 +1545,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1576,20 +1590,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -1598,9 +1598,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1627,19 +1626,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1657,55 +1662,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1717,49 +1674,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1777,7 +1698,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1807,7 +1788,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1858,35 +1857,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1921,6 +1896,50 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1935,36 +1954,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1976,130 +1975,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2190,21 +2189,6 @@
 </file>
 
 <file path=xl/externalLinks/externalLink10.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="DataList"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2617,8 +2601,8 @@
   <sheetPr/>
   <dimension ref="A1:H316"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A295" workbookViewId="0">
-      <selection activeCell="B316" sqref="B316"/>
+    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="E102" sqref="E102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -3624,7 +3608,7 @@
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
       <c r="E46" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>12</v>
@@ -3900,7 +3884,7 @@
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
       <c r="E58" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F58" s="7" t="s">
         <v>12</v>
@@ -4342,7 +4326,7 @@
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
       <c r="E78" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F78" s="7" t="s">
         <v>12</v>
@@ -4402,7 +4386,7 @@
       <c r="C81" s="8"/>
       <c r="D81" s="8"/>
       <c r="E81" s="8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F81" s="8" t="s">
         <v>12</v>
@@ -4834,7 +4818,7 @@
       <c r="C102" s="8"/>
       <c r="D102" s="8"/>
       <c r="E102" s="8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F102" s="8" t="s">
         <v>12</v>
@@ -9166,10 +9150,10 @@
       <formula1>[4]DataList!#REF!</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B140 C140 B141 C141 B144 C144 B145 C145 B194 C194 B195 B200 C200 C201 B205 C205 B206 C206 B255 C255 B256 B259 B260 B261 C261 B262 C262 B265 C265 B266 C266 B175:B184 B185:B193 B196:B197 B198:B199 B201:B202 B203:B204 B236:B245 B246:B254 B257:B258 B263:B264 B296:B305 B306:B314 B315:B316 C175:C184 C185:C193 C195:C197 C198:C199 C203:C204 C236:C245 C246:C254 C256:C258 C259:C260 C263:C264 C296:C305 C306:C314 C315:C316">
-      <formula1>[10]DataList!#REF!</formula1>
+      <formula1>[9]DataList!#REF!</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B235 C235 B295 C295 B142:B143 B146:B174 B207:B213 B214:B234 B267:B273 B274:B294 C142:C143 C146:C174 C207:C213 C214:C234 C267:C273 C274:C294">
-      <formula1>[11]DataList!#REF!</formula1>
+      <formula1>[10]DataList!#REF!</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B138:B139">
       <formula1>[5]DataList!#REF!</formula1>

--- a/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Create_PCase_Positive_Alien_POE3.xlsx
+++ b/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Create_PCase_Positive_Alien_POE3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28680" windowHeight="13650"/>
+    <workbookView windowWidth="20385" windowHeight="7740"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462">
   <si>
     <t>Step No</t>
   </si>
@@ -385,12 +385,12 @@
     <t>CONTACT_PNONE_NUMBER</t>
   </si>
   <si>
+    <t>SelectByIndex</t>
+  </si>
+  <si>
     <t>CONTACT_SEQUENCE</t>
   </si>
   <si>
-    <t>primary</t>
-  </si>
-  <si>
     <t>APP_AUTHORIZE_PERSON</t>
   </si>
   <si>
@@ -998,9 +998,6 @@
   </si>
   <si>
     <t>PROV_SUITE_NO</t>
-  </si>
-  <si>
-    <t>SelectByIndex</t>
   </si>
   <si>
     <t>ADD_PROV_PATIENT_STATE</t>
@@ -1431,10 +1428,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1461,34 +1458,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1506,9 +1502,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1516,16 +1511,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1537,11 +1533,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1553,8 +1549,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1569,14 +1574,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1584,15 +1589,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1626,6 +1623,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1638,13 +1659,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1656,31 +1719,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1692,13 +1761,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1710,19 +1779,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1734,79 +1797,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1857,11 +1854,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1881,28 +1884,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1922,24 +1917,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1954,16 +1931,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1975,10 +1972,10 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
@@ -1993,112 +1990,112 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2601,8 +2598,8 @@
   <sheetPr/>
   <dimension ref="A1:H316"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="E102" sqref="E102"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -3561,16 +3558,16 @@
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>42</v>
+        <v>116</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="E44" s="7" t="s">
         <v>117</v>
+      </c>
+      <c r="E44" s="7">
+        <v>1</v>
       </c>
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
@@ -6079,13 +6076,13 @@
         <v>163</v>
       </c>
       <c r="B164" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C164" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D164" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="C164" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D164" s="7" t="s">
-        <v>322</v>
       </c>
       <c r="E164" s="7">
         <v>2</v>
@@ -6105,10 +6102,10 @@
         <v>33</v>
       </c>
       <c r="D165" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="E165" s="8" t="s">
         <v>323</v>
-      </c>
-      <c r="E165" s="8" t="s">
-        <v>324</v>
       </c>
       <c r="F165" s="8"/>
       <c r="G165" s="8"/>
@@ -6165,7 +6162,7 @@
         <v>15</v>
       </c>
       <c r="D168" s="7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E168" s="7">
         <v>21331</v>
@@ -6185,7 +6182,7 @@
         <v>15</v>
       </c>
       <c r="D169" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E169" s="8">
         <v>97989898982</v>
@@ -6205,7 +6202,7 @@
         <v>15</v>
       </c>
       <c r="D170" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E170" s="7" t="s">
         <v>144</v>
@@ -6225,7 +6222,7 @@
         <v>15</v>
       </c>
       <c r="D171" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E171" s="8" t="s">
         <v>225</v>
@@ -6245,7 +6242,7 @@
         <v>15</v>
       </c>
       <c r="D172" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E172" s="7" t="s">
         <v>144</v>
@@ -6265,7 +6262,7 @@
         <v>15</v>
       </c>
       <c r="D173" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E173" s="8"/>
       <c r="F173" s="8"/>
@@ -6303,7 +6300,7 @@
         <v>33</v>
       </c>
       <c r="D175" s="8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E175" s="8"/>
       <c r="F175" s="8"/>
@@ -6321,7 +6318,7 @@
         <v>33</v>
       </c>
       <c r="D176" s="7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E176" s="7"/>
       <c r="F176" s="7" t="s">
@@ -6343,7 +6340,7 @@
         <v>33</v>
       </c>
       <c r="D177" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E177" s="8"/>
       <c r="F177" s="8"/>
@@ -6361,7 +6358,7 @@
         <v>33</v>
       </c>
       <c r="D178" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E178" s="7"/>
       <c r="F178" s="7" t="s">
@@ -6383,7 +6380,7 @@
         <v>33</v>
       </c>
       <c r="D179" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E179" s="8">
         <v>200</v>
@@ -6403,7 +6400,7 @@
         <v>33</v>
       </c>
       <c r="D180" s="7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E180" s="7"/>
       <c r="F180" s="7" t="s">
@@ -6485,7 +6482,7 @@
         <v>33</v>
       </c>
       <c r="D184" s="7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E184" s="7"/>
       <c r="F184" s="7" t="s">
@@ -6523,7 +6520,7 @@
         <v>33</v>
       </c>
       <c r="D186" s="7" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E186" s="7"/>
       <c r="F186" s="7"/>
@@ -6541,7 +6538,7 @@
         <v>33</v>
       </c>
       <c r="D187" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E187" s="8" t="s">
         <v>97</v>
@@ -6561,7 +6558,7 @@
         <v>33</v>
       </c>
       <c r="D188" s="7" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E188" s="7"/>
       <c r="F188" s="7"/>
@@ -6595,10 +6592,10 @@
       <c r="D190" s="7"/>
       <c r="E190" s="7"/>
       <c r="F190" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="G190" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="G190" s="7" t="s">
-        <v>340</v>
       </c>
       <c r="H190" s="7"/>
     </row>
@@ -6629,14 +6626,14 @@
         <v>33</v>
       </c>
       <c r="D192" s="7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E192" s="7"/>
       <c r="F192" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="G192" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="G192" s="7" t="s">
-        <v>343</v>
       </c>
       <c r="H192" s="7"/>
     </row>
@@ -6645,20 +6642,20 @@
         <v>192</v>
       </c>
       <c r="B193" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="C193" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D193" s="8" t="s">
         <v>344</v>
-      </c>
-      <c r="C193" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D193" s="8" t="s">
-        <v>345</v>
       </c>
       <c r="E193" s="8"/>
       <c r="F193" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="G193" s="8" t="s">
         <v>346</v>
-      </c>
-      <c r="G193" s="8" t="s">
-        <v>347</v>
       </c>
       <c r="H193" s="8"/>
     </row>
@@ -6711,13 +6708,13 @@
         <v>33</v>
       </c>
       <c r="D196" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="E196" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="E196" s="7" t="s">
+      <c r="F196" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="F196" s="7" t="s">
-        <v>350</v>
       </c>
       <c r="G196" s="7" t="s">
         <v>316</v>
@@ -6735,7 +6732,7 @@
         <v>15</v>
       </c>
       <c r="D197" s="8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E197" s="8"/>
       <c r="F197" s="8"/>
@@ -6763,13 +6760,13 @@
         <v>198</v>
       </c>
       <c r="B199" s="8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C199" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D199" s="8" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E199" s="8">
         <v>10002</v>
@@ -6789,7 +6786,7 @@
         <v>15</v>
       </c>
       <c r="D200" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E200" s="7"/>
       <c r="F200" s="7"/>
@@ -6817,13 +6814,13 @@
         <v>201</v>
       </c>
       <c r="B202" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C202" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D202" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E202" s="7"/>
       <c r="F202" s="7"/>
@@ -6841,11 +6838,11 @@
         <v>15</v>
       </c>
       <c r="D203" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E203" s="8"/>
       <c r="F203" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G203" s="8"/>
       <c r="H203" s="8"/>
@@ -7295,13 +7292,13 @@
         <v>224</v>
       </c>
       <c r="B225" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C225" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D225" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="C225" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D225" s="7" t="s">
-        <v>322</v>
       </c>
       <c r="E225" s="7">
         <v>2</v>
@@ -7321,10 +7318,10 @@
         <v>33</v>
       </c>
       <c r="D226" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="E226" s="8" t="s">
         <v>323</v>
-      </c>
-      <c r="E226" s="8" t="s">
-        <v>324</v>
       </c>
       <c r="F226" s="8"/>
       <c r="G226" s="8"/>
@@ -7381,7 +7378,7 @@
         <v>15</v>
       </c>
       <c r="D229" s="7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E229" s="7">
         <v>21331</v>
@@ -7401,7 +7398,7 @@
         <v>15</v>
       </c>
       <c r="D230" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E230" s="8">
         <v>97989898982</v>
@@ -7421,7 +7418,7 @@
         <v>15</v>
       </c>
       <c r="D231" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E231" s="7" t="s">
         <v>144</v>
@@ -7441,7 +7438,7 @@
         <v>15</v>
       </c>
       <c r="D232" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E232" s="8" t="s">
         <v>225</v>
@@ -7461,7 +7458,7 @@
         <v>15</v>
       </c>
       <c r="D233" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E233" s="7" t="s">
         <v>144</v>
@@ -7481,7 +7478,7 @@
         <v>15</v>
       </c>
       <c r="D234" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E234" s="8"/>
       <c r="F234" s="8"/>
@@ -7519,7 +7516,7 @@
         <v>33</v>
       </c>
       <c r="D236" s="8" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E236" s="8"/>
       <c r="F236" s="8"/>
@@ -7537,7 +7534,7 @@
         <v>33</v>
       </c>
       <c r="D237" s="7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E237" s="7"/>
       <c r="F237" s="7" t="s">
@@ -7559,7 +7556,7 @@
         <v>33</v>
       </c>
       <c r="D238" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E238" s="8"/>
       <c r="F238" s="8"/>
@@ -7577,7 +7574,7 @@
         <v>33</v>
       </c>
       <c r="D239" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E239" s="7"/>
       <c r="F239" s="7" t="s">
@@ -7599,7 +7596,7 @@
         <v>33</v>
       </c>
       <c r="D240" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E240" s="8">
         <v>200</v>
@@ -7619,7 +7616,7 @@
         <v>33</v>
       </c>
       <c r="D241" s="7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E241" s="7"/>
       <c r="F241" s="7" t="s">
@@ -7701,7 +7698,7 @@
         <v>33</v>
       </c>
       <c r="D245" s="7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E245" s="7"/>
       <c r="F245" s="7" t="s">
@@ -7739,7 +7736,7 @@
         <v>33</v>
       </c>
       <c r="D247" s="7" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E247" s="7"/>
       <c r="F247" s="7"/>
@@ -7757,7 +7754,7 @@
         <v>33</v>
       </c>
       <c r="D248" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E248" s="8" t="s">
         <v>97</v>
@@ -7777,7 +7774,7 @@
         <v>33</v>
       </c>
       <c r="D249" s="7" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E249" s="7"/>
       <c r="F249" s="7"/>
@@ -7811,10 +7808,10 @@
       <c r="D251" s="7"/>
       <c r="E251" s="7"/>
       <c r="F251" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="G251" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="G251" s="7" t="s">
-        <v>340</v>
       </c>
       <c r="H251" s="7"/>
     </row>
@@ -7845,14 +7842,14 @@
         <v>33</v>
       </c>
       <c r="D253" s="7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E253" s="7"/>
       <c r="F253" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="G253" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="G253" s="7" t="s">
-        <v>343</v>
       </c>
       <c r="H253" s="7"/>
     </row>
@@ -7861,20 +7858,20 @@
         <v>253</v>
       </c>
       <c r="B254" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="C254" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D254" s="8" t="s">
         <v>344</v>
-      </c>
-      <c r="C254" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D254" s="8" t="s">
-        <v>345</v>
       </c>
       <c r="E254" s="8"/>
       <c r="F254" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="G254" s="8" t="s">
         <v>346</v>
-      </c>
-      <c r="G254" s="8" t="s">
-        <v>347</v>
       </c>
       <c r="H254" s="8"/>
     </row>
@@ -7927,13 +7924,13 @@
         <v>33</v>
       </c>
       <c r="D257" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E257" s="7" t="s">
         <v>197</v>
       </c>
       <c r="F257" s="7" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G257" s="7" t="s">
         <v>316</v>
@@ -7951,10 +7948,10 @@
         <v>15</v>
       </c>
       <c r="D258" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="E258" s="8" t="s">
         <v>358</v>
-      </c>
-      <c r="E258" s="8" t="s">
-        <v>359</v>
       </c>
       <c r="F258" s="8"/>
       <c r="G258" s="8"/>
@@ -7971,7 +7968,7 @@
         <v>15</v>
       </c>
       <c r="D259" s="7" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E259" s="7" t="s">
         <v>318</v>
@@ -7991,7 +7988,7 @@
         <v>15</v>
       </c>
       <c r="D260" s="8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E260" s="8" t="s">
         <v>105</v>
@@ -8005,13 +8002,13 @@
         <v>260</v>
       </c>
       <c r="B261" s="7" t="s">
-        <v>321</v>
+        <v>116</v>
       </c>
       <c r="C261" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D261" s="7" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E261" s="7">
         <v>2</v>
@@ -8025,13 +8022,13 @@
         <v>261</v>
       </c>
       <c r="B262" s="8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C262" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D262" s="8" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E262" s="8">
         <v>10002</v>
@@ -8051,11 +8048,11 @@
         <v>15</v>
       </c>
       <c r="D263" s="7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E263" s="7"/>
       <c r="F263" s="7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G263" s="7"/>
       <c r="H263" s="7"/>
@@ -8505,13 +8502,13 @@
         <v>284</v>
       </c>
       <c r="B285" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C285" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D285" s="8" t="s">
         <v>321</v>
-      </c>
-      <c r="C285" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D285" s="8" t="s">
-        <v>322</v>
       </c>
       <c r="E285" s="8">
         <v>2</v>
@@ -8531,10 +8528,10 @@
         <v>33</v>
       </c>
       <c r="D286" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="E286" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="E286" s="7" t="s">
-        <v>324</v>
       </c>
       <c r="F286" s="7"/>
       <c r="G286" s="7"/>
@@ -8591,7 +8588,7 @@
         <v>15</v>
       </c>
       <c r="D289" s="8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E289" s="8">
         <v>21331</v>
@@ -8611,7 +8608,7 @@
         <v>15</v>
       </c>
       <c r="D290" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E290" s="7">
         <v>97989898982</v>
@@ -8631,7 +8628,7 @@
         <v>15</v>
       </c>
       <c r="D291" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E291" s="8" t="s">
         <v>144</v>
@@ -8651,7 +8648,7 @@
         <v>15</v>
       </c>
       <c r="D292" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E292" s="7" t="s">
         <v>225</v>
@@ -8671,7 +8668,7 @@
         <v>15</v>
       </c>
       <c r="D293" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E293" s="8" t="s">
         <v>144</v>
@@ -8691,7 +8688,7 @@
         <v>15</v>
       </c>
       <c r="D294" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E294" s="7"/>
       <c r="F294" s="7"/>
@@ -8729,7 +8726,7 @@
         <v>33</v>
       </c>
       <c r="D296" s="7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E296" s="7"/>
       <c r="F296" s="7"/>
@@ -8747,7 +8744,7 @@
         <v>33</v>
       </c>
       <c r="D297" s="8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E297" s="8"/>
       <c r="F297" s="8" t="s">
@@ -8769,7 +8766,7 @@
         <v>33</v>
       </c>
       <c r="D298" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E298" s="7"/>
       <c r="F298" s="7"/>
@@ -8787,7 +8784,7 @@
         <v>33</v>
       </c>
       <c r="D299" s="8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E299" s="8"/>
       <c r="F299" s="8" t="s">
@@ -8809,7 +8806,7 @@
         <v>33</v>
       </c>
       <c r="D300" s="7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E300" s="7">
         <v>200</v>
@@ -8829,7 +8826,7 @@
         <v>33</v>
       </c>
       <c r="D301" s="8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E301" s="8"/>
       <c r="F301" s="8" t="s">
@@ -8911,7 +8908,7 @@
         <v>33</v>
       </c>
       <c r="D305" s="8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E305" s="8"/>
       <c r="F305" s="8" t="s">
@@ -8949,7 +8946,7 @@
         <v>33</v>
       </c>
       <c r="D307" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E307" s="8"/>
       <c r="F307" s="8"/>
@@ -8967,7 +8964,7 @@
         <v>33</v>
       </c>
       <c r="D308" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E308" s="7" t="s">
         <v>97</v>
@@ -8987,7 +8984,7 @@
         <v>33</v>
       </c>
       <c r="D309" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E309" s="8"/>
       <c r="F309" s="8"/>
@@ -9021,10 +9018,10 @@
       <c r="D311" s="8"/>
       <c r="E311" s="8"/>
       <c r="F311" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="G311" s="8" t="s">
         <v>339</v>
-      </c>
-      <c r="G311" s="8" t="s">
-        <v>340</v>
       </c>
       <c r="H311" s="8"/>
     </row>
@@ -9055,14 +9052,14 @@
         <v>33</v>
       </c>
       <c r="D313" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E313" s="8"/>
       <c r="F313" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="G313" s="8" t="s">
         <v>342</v>
-      </c>
-      <c r="G313" s="8" t="s">
-        <v>343</v>
       </c>
       <c r="H313" s="8"/>
     </row>
@@ -9071,20 +9068,20 @@
         <v>313</v>
       </c>
       <c r="B314" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="C314" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D314" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="C314" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D314" s="7" t="s">
-        <v>345</v>
       </c>
       <c r="E314" s="7"/>
       <c r="F314" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="G314" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="G314" s="7" t="s">
-        <v>347</v>
       </c>
       <c r="H314" s="7"/>
     </row>
@@ -9099,14 +9096,14 @@
         <v>33</v>
       </c>
       <c r="D315" s="8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E315" s="8"/>
       <c r="F315" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="G315" s="8" t="s">
         <v>364</v>
-      </c>
-      <c r="G315" s="8" t="s">
-        <v>365</v>
       </c>
       <c r="H315" s="8"/>
     </row>
@@ -9189,7 +9186,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -9197,20 +9194,20 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
+        <v>367</v>
+      </c>
+      <c r="C3" t="s">
         <v>368</v>
-      </c>
-      <c r="C3" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -9221,20 +9218,20 @@
         <v>33</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
+        <v>371</v>
+      </c>
+      <c r="C6" t="s">
         <v>372</v>
-      </c>
-      <c r="C6" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -9242,47 +9239,47 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
+        <v>374</v>
+      </c>
+      <c r="C8" t="s">
         <v>375</v>
-      </c>
-      <c r="C8" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
+        <v>376</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>378</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
+        <v>379</v>
+      </c>
+      <c r="C10" t="s">
         <v>380</v>
-      </c>
-      <c r="C10" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
+        <v>381</v>
+      </c>
+      <c r="C11" t="s">
         <v>382</v>
-      </c>
-      <c r="C11" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="14" spans="3:3">
@@ -9292,12 +9289,12 @@
     </row>
     <row r="15" spans="3:3">
       <c r="C15" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="17" spans="3:3">
@@ -9307,17 +9304,17 @@
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="21" spans="3:3">
@@ -9327,35 +9324,35 @@
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" t="s">
-        <v>321</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="28" spans="3:3">
@@ -9365,62 +9362,62 @@
     </row>
     <row r="29" spans="3:3">
       <c r="C29" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="41" spans="3:3">
@@ -9430,87 +9427,87 @@
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="59" spans="3:3">
@@ -9520,199 +9517,199 @@
     </row>
     <row r="60" spans="3:3">
       <c r="C60" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="67" spans="3:3">
       <c r="C67" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="69" spans="3:3">
       <c r="C69" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="71" spans="3:4">
       <c r="C71" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="72" spans="3:3">
       <c r="C72" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="73" spans="3:4">
       <c r="C73" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="74" spans="3:3">
       <c r="C74" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="75" spans="3:3">
       <c r="C75" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="76" spans="3:3">
       <c r="C76" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="77" spans="3:3">
       <c r="C77" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="78" spans="3:4">
       <c r="C78" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="79" spans="3:4">
       <c r="C79" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="97" spans="3:3">
@@ -9727,17 +9724,17 @@
     </row>
     <row r="99" spans="3:3">
       <c r="C99" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="100" spans="3:3">
       <c r="C100" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="101" spans="3:3">
       <c r="C101" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
   </sheetData>

--- a/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Create_PCase_Positive_Alien_POE3.xlsx
+++ b/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Create_PCase_Positive_Alien_POE3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="7740"/>
+    <workbookView windowWidth="28680" windowHeight="13230"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1428,10 +1428,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1459,17 +1459,32 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1482,62 +1497,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1557,6 +1519,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -1566,22 +1557,38 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1590,13 +1597,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1623,7 +1623,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1635,7 +1635,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1647,7 +1659,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1659,13 +1677,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1677,25 +1707,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1707,31 +1731,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1749,7 +1749,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1761,49 +1791,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1854,6 +1854,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1880,24 +1898,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1935,8 +1935,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1954,13 +1954,13 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1972,130 +1972,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2598,8 +2598,8 @@
   <sheetPr/>
   <dimension ref="A1:H316"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
+      <selection activeCell="D146" sqref="D146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>

--- a/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Create_PCase_Positive_Alien_POE3.xlsx
+++ b/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Create_PCase_Positive_Alien_POE3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28680" windowHeight="13230"/>
+    <workbookView windowWidth="28680" windowHeight="13650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <externalReference r:id="rId11"/>
     <externalReference r:id="rId12"/>
     <externalReference r:id="rId13"/>
+    <externalReference r:id="rId14"/>
   </externalReferences>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460">
   <si>
     <t>Step No</t>
   </si>
@@ -502,9 +503,6 @@
     <t>APP_PLANTYPE</t>
   </si>
   <si>
-    <t>EPO</t>
-  </si>
-  <si>
     <t>Select Plan type</t>
   </si>
   <si>
@@ -524,9 +522,6 @@
   </si>
   <si>
     <t>APP_INS_TYPE</t>
-  </si>
-  <si>
-    <t>Medicare</t>
   </si>
   <si>
     <t>Insurance type selected</t>
@@ -1428,10 +1423,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1459,85 +1454,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1549,26 +1468,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1587,10 +1490,102 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1623,157 +1618,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1791,7 +1648,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1803,12 +1768,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1856,9 +1851,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <top style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.399975585192419"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1866,8 +1863,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1903,6 +1900,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1917,17 +1929,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1935,8 +1941,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1954,13 +1960,13 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1972,134 +1978,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2109,6 +2115,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2186,6 +2193,21 @@
 </file>
 
 <file path=xl/externalLinks/externalLink10.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="DataList"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2598,8 +2620,8 @@
   <sheetPr/>
   <dimension ref="A1:H316"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
-      <selection activeCell="D146" sqref="D146"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -3953,8 +3975,8 @@
       <c r="A62" s="7">
         <v>61</v>
       </c>
-      <c r="B62" s="7" t="s">
-        <v>42</v>
+      <c r="B62" s="9" t="s">
+        <v>116</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>33</v>
@@ -3962,14 +3984,14 @@
       <c r="D62" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="E62" s="7" t="s">
+      <c r="E62" s="7">
+        <v>1</v>
+      </c>
+      <c r="F62" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="F62" s="7" t="s">
+      <c r="G62" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="G62" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="H62" s="7"/>
     </row>
@@ -3984,16 +4006,16 @@
         <v>15</v>
       </c>
       <c r="D63" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="E63" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="E63" s="8" t="s">
+      <c r="F63" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="F63" s="8" t="s">
+      <c r="G63" s="8" t="s">
         <v>160</v>
-      </c>
-      <c r="G63" s="8" t="s">
-        <v>161</v>
       </c>
       <c r="H63" s="8"/>
     </row>
@@ -4001,23 +4023,23 @@
       <c r="A64" s="7">
         <v>63</v>
       </c>
-      <c r="B64" s="7" t="s">
-        <v>42</v>
+      <c r="B64" s="9" t="s">
+        <v>116</v>
       </c>
       <c r="C64" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="E64" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
+      </c>
+      <c r="E64" s="7">
+        <v>1</v>
       </c>
       <c r="F64" s="7" t="s">
         <v>152</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H64" s="7"/>
     </row>
@@ -4032,16 +4054,16 @@
         <v>15</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E65" s="8" t="s">
         <v>97</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H65" s="8"/>
     </row>
@@ -4056,16 +4078,16 @@
         <v>15</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E66" s="7">
         <v>1235647899</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H66" s="7"/>
     </row>
@@ -4080,7 +4102,7 @@
         <v>33</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
@@ -4098,14 +4120,14 @@
         <v>33</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E68" s="7"/>
       <c r="F68" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H68" s="7"/>
     </row>
@@ -4120,16 +4142,16 @@
         <v>15</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E69" s="8">
         <v>97890456789</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H69" s="8"/>
     </row>
@@ -4144,14 +4166,14 @@
         <v>33</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E70" s="7"/>
       <c r="F70" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H70" s="7"/>
     </row>
@@ -4166,16 +4188,16 @@
         <v>33</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E71" s="8">
         <v>1230</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G71" s="8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H71" s="8"/>
     </row>
@@ -4190,16 +4212,16 @@
         <v>33</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E72" s="7">
         <v>1550</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H72" s="7"/>
     </row>
@@ -4214,14 +4236,14 @@
         <v>33</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E73" s="8"/>
       <c r="F73" s="8" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G73" s="8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H73" s="8"/>
     </row>
@@ -4236,14 +4258,14 @@
         <v>33</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E74" s="7"/>
       <c r="F74" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H74" s="7"/>
     </row>
@@ -4258,14 +4280,14 @@
         <v>33</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E75" s="8"/>
       <c r="F75" s="8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G75" s="8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H75" s="8"/>
     </row>
@@ -4280,14 +4302,14 @@
         <v>33</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E76" s="7"/>
       <c r="F76" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H76" s="7"/>
     </row>
@@ -4344,7 +4366,7 @@
         <v>33</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
@@ -4404,16 +4426,16 @@
         <v>33</v>
       </c>
       <c r="D82" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F82" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="E82" s="7" t="s">
+      <c r="G82" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="F82" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="G82" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="H82" s="7"/>
     </row>
@@ -4444,10 +4466,10 @@
       <c r="D84" s="7"/>
       <c r="E84" s="7"/>
       <c r="F84" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H84" s="7"/>
     </row>
@@ -4462,14 +4484,14 @@
         <v>33</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E85" s="8"/>
       <c r="F85" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G85" s="8" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H85" s="8"/>
     </row>
@@ -4484,14 +4506,14 @@
         <v>33</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E86" s="7"/>
       <c r="F86" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H86" s="7"/>
     </row>
@@ -4548,14 +4570,14 @@
         <v>33</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E89" s="7"/>
       <c r="F89" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H89" s="7"/>
     </row>
@@ -4586,7 +4608,7 @@
         <v>33</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E91" s="7"/>
       <c r="F91" s="7"/>
@@ -4620,14 +4642,14 @@
         <v>33</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E93" s="7"/>
       <c r="F93" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H93" s="7"/>
     </row>
@@ -4644,10 +4666,10 @@
         <v>3</v>
       </c>
       <c r="F94" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G94" s="8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H94" s="8"/>
     </row>
@@ -4662,14 +4684,14 @@
         <v>33</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E95" s="7"/>
       <c r="F95" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H95" s="7"/>
     </row>
@@ -4684,14 +4706,14 @@
         <v>33</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E96" s="8"/>
       <c r="F96" s="8" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G96" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H96" s="8"/>
     </row>
@@ -4722,16 +4744,16 @@
         <v>15</v>
       </c>
       <c r="D98" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="E98" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="F98" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="E98" s="8" t="s">
+      <c r="G98" s="8" t="s">
         <v>221</v>
-      </c>
-      <c r="F98" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="G98" s="8" t="s">
-        <v>223</v>
       </c>
       <c r="H98" s="8"/>
     </row>
@@ -4746,16 +4768,16 @@
         <v>15</v>
       </c>
       <c r="D99" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="E99" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F99" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="E99" s="7" t="s">
+      <c r="G99" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="F99" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="G99" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="H99" s="7"/>
     </row>
@@ -4770,7 +4792,7 @@
         <v>15</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E100" s="8">
         <v>9889656446</v>
@@ -4794,14 +4816,14 @@
         <v>15</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E101" s="7"/>
       <c r="F101" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G101" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H101" s="7"/>
     </row>
@@ -4830,20 +4852,20 @@
         <v>102</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C103" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E103" s="7"/>
       <c r="F103" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G103" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H103" s="7"/>
     </row>
@@ -4852,20 +4874,20 @@
         <v>103</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C104" s="8" t="s">
         <v>33</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E104" s="8"/>
       <c r="F104" s="8" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G104" s="8" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H104" s="8"/>
     </row>
@@ -4874,20 +4896,20 @@
         <v>104</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C105" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E105" s="7"/>
       <c r="F105" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G105" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H105" s="7"/>
     </row>
@@ -4896,20 +4918,20 @@
         <v>105</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C106" s="8" t="s">
         <v>33</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E106" s="8"/>
       <c r="F106" s="8" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G106" s="8" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H106" s="8"/>
     </row>
@@ -4918,20 +4940,20 @@
         <v>106</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C107" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E107" s="7"/>
       <c r="F107" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G107" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H107" s="7"/>
     </row>
@@ -4940,20 +4962,20 @@
         <v>107</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C108" s="8" t="s">
         <v>33</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E108" s="8"/>
       <c r="F108" s="8" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G108" s="8" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H108" s="8"/>
     </row>
@@ -4962,20 +4984,20 @@
         <v>108</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C109" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E109" s="7"/>
       <c r="F109" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G109" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H109" s="7"/>
     </row>
@@ -4984,20 +5006,20 @@
         <v>109</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C110" s="8" t="s">
         <v>33</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E110" s="8"/>
       <c r="F110" s="8" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G110" s="8" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H110" s="8"/>
     </row>
@@ -5012,14 +5034,14 @@
         <v>33</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E111" s="7"/>
       <c r="F111" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G111" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="H111" s="7"/>
     </row>
@@ -5162,14 +5184,14 @@
         <v>33</v>
       </c>
       <c r="D119" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E119" s="7"/>
       <c r="F119" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G119" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="H119" s="7"/>
     </row>
@@ -5184,14 +5206,14 @@
         <v>15</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E120" s="8"/>
       <c r="F120" s="8" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G120" s="8" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="H120" s="8"/>
     </row>
@@ -5222,14 +5244,14 @@
         <v>33</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E122" s="8"/>
       <c r="F122" s="8" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G122" s="8" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H122" s="8"/>
     </row>
@@ -5244,16 +5266,16 @@
         <v>15</v>
       </c>
       <c r="D123" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="E123" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F123" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="E123" s="7" t="s">
+      <c r="G123" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="F123" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="G123" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="H123" s="7"/>
     </row>
@@ -5268,16 +5290,16 @@
         <v>33</v>
       </c>
       <c r="D124" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="E124" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="F124" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="E124" s="8" t="s">
+      <c r="G124" s="8" t="s">
         <v>267</v>
-      </c>
-      <c r="F124" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="G124" s="8" t="s">
-        <v>269</v>
       </c>
       <c r="H124" s="8"/>
     </row>
@@ -5286,22 +5308,22 @@
         <v>124</v>
       </c>
       <c r="B125" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="C125" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D125" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="E125" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="C125" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D125" s="7" t="s">
+      <c r="F125" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="E125" s="7" t="s">
+      <c r="G125" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="F125" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="G125" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="H125" s="7"/>
     </row>
@@ -5320,10 +5342,10 @@
       </c>
       <c r="E126" s="8"/>
       <c r="F126" s="8" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G126" s="8" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="H126" s="8"/>
     </row>
@@ -5352,7 +5374,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C128" s="8"/>
       <c r="D128" s="8"/>
@@ -5392,14 +5414,14 @@
         <v>15</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E130" s="8"/>
       <c r="F130" s="8" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="G130" s="8" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H130" s="8"/>
     </row>
@@ -5526,14 +5548,14 @@
         <v>33</v>
       </c>
       <c r="D137" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E137" s="7"/>
       <c r="F137" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G137" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="H137" s="7"/>
     </row>
@@ -5548,14 +5570,14 @@
         <v>15</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E138" s="8"/>
       <c r="F138" s="8" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G138" s="8" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H138" s="8"/>
     </row>
@@ -5586,14 +5608,14 @@
         <v>33</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E140" s="8"/>
       <c r="F140" s="8" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G140" s="8" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H140" s="8"/>
     </row>
@@ -5624,7 +5646,7 @@
         <v>15</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E142" s="8"/>
       <c r="F142" s="8"/>
@@ -5658,7 +5680,7 @@
         <v>33</v>
       </c>
       <c r="D144" s="8" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E144" s="8"/>
       <c r="F144" s="8"/>
@@ -5692,13 +5714,13 @@
         <v>33</v>
       </c>
       <c r="D146" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="E146" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="F146" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="E146" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="F146" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="G146" s="7" t="s">
         <v>103</v>
@@ -5716,10 +5738,10 @@
         <v>15</v>
       </c>
       <c r="D147" s="8" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E147" s="8" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F147" s="8" t="s">
         <v>124</v>
@@ -5740,16 +5762,16 @@
         <v>15</v>
       </c>
       <c r="D148" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="E148" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="F148" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="E148" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="F148" s="7" t="s">
-        <v>296</v>
-      </c>
       <c r="G148" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H148" s="7"/>
     </row>
@@ -5764,14 +5786,14 @@
         <v>15</v>
       </c>
       <c r="D149" s="8" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E149" s="8"/>
       <c r="F149" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G149" s="8" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H149" s="8"/>
     </row>
@@ -5806,7 +5828,7 @@
         <v>33</v>
       </c>
       <c r="D151" s="8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E151" s="8"/>
       <c r="F151" s="8"/>
@@ -5840,7 +5862,7 @@
         <v>33</v>
       </c>
       <c r="D153" s="8" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E153" s="8"/>
       <c r="F153" s="8" t="s">
@@ -5862,7 +5884,7 @@
         <v>33</v>
       </c>
       <c r="D154" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E154" s="7"/>
       <c r="F154" s="7" t="s">
@@ -5878,20 +5900,20 @@
         <v>154</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C155" s="8" t="s">
         <v>33</v>
       </c>
       <c r="D155" s="8" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E155" s="8"/>
       <c r="F155" s="8" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G155" s="8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H155" s="8"/>
     </row>
@@ -5906,14 +5928,14 @@
         <v>33</v>
       </c>
       <c r="D156" s="7" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E156" s="7"/>
       <c r="F156" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G156" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H156" s="7"/>
     </row>
@@ -5922,20 +5944,20 @@
         <v>156</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C157" s="8" t="s">
         <v>33</v>
       </c>
       <c r="D157" s="8" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E157" s="8"/>
       <c r="F157" s="8" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G157" s="8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H157" s="8"/>
     </row>
@@ -5950,11 +5972,11 @@
         <v>33</v>
       </c>
       <c r="D158" s="7" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E158" s="7"/>
       <c r="F158" s="7" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G158" s="7" t="s">
         <v>18</v>
@@ -5972,11 +5994,11 @@
         <v>33</v>
       </c>
       <c r="D159" s="8" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E159" s="8"/>
       <c r="F159" s="8" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G159" s="8" t="s">
         <v>18</v>
@@ -5994,11 +6016,11 @@
         <v>33</v>
       </c>
       <c r="D160" s="7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E160" s="7"/>
       <c r="F160" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G160" s="7" t="s">
         <v>18</v>
@@ -6016,16 +6038,16 @@
         <v>33</v>
       </c>
       <c r="D161" s="8" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E161" s="8" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F161" s="8" t="s">
         <v>94</v>
       </c>
       <c r="G161" s="8" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H161" s="8"/>
     </row>
@@ -6040,13 +6062,13 @@
         <v>33</v>
       </c>
       <c r="D162" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="E162" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="F162" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="E162" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="F162" s="7" t="s">
-        <v>319</v>
       </c>
       <c r="G162" s="7" t="s">
         <v>132</v>
@@ -6064,7 +6086,7 @@
         <v>15</v>
       </c>
       <c r="D163" s="8" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E163" s="8"/>
       <c r="F163" s="8"/>
@@ -6082,7 +6104,7 @@
         <v>33</v>
       </c>
       <c r="D164" s="7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E164" s="7">
         <v>2</v>
@@ -6102,10 +6124,10 @@
         <v>33</v>
       </c>
       <c r="D165" s="8" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E165" s="8" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F165" s="8"/>
       <c r="G165" s="8"/>
@@ -6142,7 +6164,7 @@
         <v>15</v>
       </c>
       <c r="D167" s="8" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E167" s="8">
         <v>9789045678</v>
@@ -6162,7 +6184,7 @@
         <v>15</v>
       </c>
       <c r="D168" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E168" s="7">
         <v>21331</v>
@@ -6182,7 +6204,7 @@
         <v>15</v>
       </c>
       <c r="D169" s="8" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E169" s="8">
         <v>97989898982</v>
@@ -6202,7 +6224,7 @@
         <v>15</v>
       </c>
       <c r="D170" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E170" s="7" t="s">
         <v>144</v>
@@ -6222,10 +6244,10 @@
         <v>15</v>
       </c>
       <c r="D171" s="8" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E171" s="8" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F171" s="8"/>
       <c r="G171" s="8"/>
@@ -6242,7 +6264,7 @@
         <v>15</v>
       </c>
       <c r="D172" s="7" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E172" s="7" t="s">
         <v>144</v>
@@ -6262,7 +6284,7 @@
         <v>15</v>
       </c>
       <c r="D173" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E173" s="8"/>
       <c r="F173" s="8"/>
@@ -6300,7 +6322,7 @@
         <v>33</v>
       </c>
       <c r="D175" s="8" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E175" s="8"/>
       <c r="F175" s="8"/>
@@ -6318,14 +6340,14 @@
         <v>33</v>
       </c>
       <c r="D176" s="7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E176" s="7"/>
       <c r="F176" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G176" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H176" s="7"/>
     </row>
@@ -6340,7 +6362,7 @@
         <v>33</v>
       </c>
       <c r="D177" s="8" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E177" s="8"/>
       <c r="F177" s="8"/>
@@ -6358,14 +6380,14 @@
         <v>33</v>
       </c>
       <c r="D178" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E178" s="7"/>
       <c r="F178" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G178" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H178" s="7"/>
     </row>
@@ -6380,7 +6402,7 @@
         <v>33</v>
       </c>
       <c r="D179" s="8" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E179" s="8">
         <v>200</v>
@@ -6400,7 +6422,7 @@
         <v>33</v>
       </c>
       <c r="D180" s="7" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E180" s="7"/>
       <c r="F180" s="7" t="s">
@@ -6438,10 +6460,10 @@
         <v>15</v>
       </c>
       <c r="D182" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E182" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F182" s="7"/>
       <c r="G182" s="7"/>
@@ -6452,22 +6474,22 @@
         <v>182</v>
       </c>
       <c r="B183" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="C183" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D183" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="E183" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="C183" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D183" s="8" t="s">
+      <c r="F183" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="E183" s="8" t="s">
+      <c r="G183" s="8" t="s">
         <v>272</v>
-      </c>
-      <c r="F183" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="G183" s="8" t="s">
-        <v>274</v>
       </c>
       <c r="H183" s="8"/>
     </row>
@@ -6482,7 +6504,7 @@
         <v>33</v>
       </c>
       <c r="D184" s="7" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E184" s="7"/>
       <c r="F184" s="7" t="s">
@@ -6520,7 +6542,7 @@
         <v>33</v>
       </c>
       <c r="D186" s="7" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E186" s="7"/>
       <c r="F186" s="7"/>
@@ -6538,7 +6560,7 @@
         <v>33</v>
       </c>
       <c r="D187" s="8" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E187" s="8" t="s">
         <v>97</v>
@@ -6558,7 +6580,7 @@
         <v>33</v>
       </c>
       <c r="D188" s="7" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E188" s="7"/>
       <c r="F188" s="7"/>
@@ -6586,16 +6608,16 @@
         <v>189</v>
       </c>
       <c r="B190" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C190" s="7"/>
       <c r="D190" s="7"/>
       <c r="E190" s="7"/>
       <c r="F190" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G190" s="7" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="H190" s="7"/>
     </row>
@@ -6620,20 +6642,20 @@
         <v>191</v>
       </c>
       <c r="B192" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C192" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D192" s="7" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E192" s="7"/>
       <c r="F192" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G192" s="7" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="H192" s="7"/>
     </row>
@@ -6642,20 +6664,20 @@
         <v>192</v>
       </c>
       <c r="B193" s="8" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C193" s="8" t="s">
         <v>33</v>
       </c>
       <c r="D193" s="8" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E193" s="8"/>
       <c r="F193" s="8" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G193" s="8" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="H193" s="8"/>
     </row>
@@ -6670,14 +6692,14 @@
         <v>33</v>
       </c>
       <c r="D194" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E194" s="7"/>
       <c r="F194" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G194" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H194" s="7"/>
     </row>
@@ -6708,16 +6730,16 @@
         <v>33</v>
       </c>
       <c r="D196" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="E196" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F196" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="E196" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="F196" s="7" t="s">
-        <v>349</v>
-      </c>
       <c r="G196" s="7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H196" s="7"/>
     </row>
@@ -6732,7 +6754,7 @@
         <v>15</v>
       </c>
       <c r="D197" s="8" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E197" s="8"/>
       <c r="F197" s="8"/>
@@ -6760,13 +6782,13 @@
         <v>198</v>
       </c>
       <c r="B199" s="8" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C199" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D199" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E199" s="8">
         <v>10002</v>
@@ -6786,7 +6808,7 @@
         <v>15</v>
       </c>
       <c r="D200" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E200" s="7"/>
       <c r="F200" s="7"/>
@@ -6814,13 +6836,13 @@
         <v>201</v>
       </c>
       <c r="B202" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C202" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D202" s="7" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E202" s="7"/>
       <c r="F202" s="7"/>
@@ -6838,11 +6860,11 @@
         <v>15</v>
       </c>
       <c r="D203" s="8" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E203" s="8"/>
       <c r="F203" s="8" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="G203" s="8"/>
       <c r="H203" s="8"/>
@@ -6874,7 +6896,7 @@
         <v>33</v>
       </c>
       <c r="D205" s="8" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E205" s="8"/>
       <c r="F205" s="8"/>
@@ -6908,13 +6930,13 @@
         <v>33</v>
       </c>
       <c r="D207" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="E207" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="F207" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="E207" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="F207" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="G207" s="7" t="s">
         <v>103</v>
@@ -6932,10 +6954,10 @@
         <v>15</v>
       </c>
       <c r="D208" s="8" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E208" s="8" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F208" s="8" t="s">
         <v>124</v>
@@ -6956,16 +6978,16 @@
         <v>15</v>
       </c>
       <c r="D209" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="E209" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="F209" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="E209" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="F209" s="7" t="s">
-        <v>296</v>
-      </c>
       <c r="G209" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H209" s="7"/>
     </row>
@@ -6980,14 +7002,14 @@
         <v>15</v>
       </c>
       <c r="D210" s="8" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E210" s="8"/>
       <c r="F210" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G210" s="8" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H210" s="8"/>
     </row>
@@ -7022,7 +7044,7 @@
         <v>33</v>
       </c>
       <c r="D212" s="8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E212" s="8"/>
       <c r="F212" s="8"/>
@@ -7056,7 +7078,7 @@
         <v>33</v>
       </c>
       <c r="D214" s="8" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E214" s="8"/>
       <c r="F214" s="8" t="s">
@@ -7078,7 +7100,7 @@
         <v>33</v>
       </c>
       <c r="D215" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E215" s="7"/>
       <c r="F215" s="7" t="s">
@@ -7094,20 +7116,20 @@
         <v>215</v>
       </c>
       <c r="B216" s="8" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C216" s="8" t="s">
         <v>33</v>
       </c>
       <c r="D216" s="8" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E216" s="8"/>
       <c r="F216" s="8" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G216" s="8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H216" s="8"/>
     </row>
@@ -7122,14 +7144,14 @@
         <v>33</v>
       </c>
       <c r="D217" s="7" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E217" s="7"/>
       <c r="F217" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G217" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H217" s="7"/>
     </row>
@@ -7138,20 +7160,20 @@
         <v>217</v>
       </c>
       <c r="B218" s="8" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C218" s="8" t="s">
         <v>33</v>
       </c>
       <c r="D218" s="8" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E218" s="8"/>
       <c r="F218" s="8" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G218" s="8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H218" s="8"/>
     </row>
@@ -7166,11 +7188,11 @@
         <v>33</v>
       </c>
       <c r="D219" s="7" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E219" s="7"/>
       <c r="F219" s="7" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G219" s="7" t="s">
         <v>18</v>
@@ -7188,11 +7210,11 @@
         <v>33</v>
       </c>
       <c r="D220" s="8" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E220" s="8"/>
       <c r="F220" s="8" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G220" s="8" t="s">
         <v>18</v>
@@ -7210,11 +7232,11 @@
         <v>33</v>
       </c>
       <c r="D221" s="7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E221" s="7"/>
       <c r="F221" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G221" s="7" t="s">
         <v>18</v>
@@ -7232,16 +7254,16 @@
         <v>33</v>
       </c>
       <c r="D222" s="8" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E222" s="8" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F222" s="8" t="s">
         <v>94</v>
       </c>
       <c r="G222" s="8" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H222" s="8"/>
     </row>
@@ -7256,13 +7278,13 @@
         <v>33</v>
       </c>
       <c r="D223" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="E223" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="F223" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="E223" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="F223" s="7" t="s">
-        <v>319</v>
       </c>
       <c r="G223" s="7" t="s">
         <v>132</v>
@@ -7280,7 +7302,7 @@
         <v>15</v>
       </c>
       <c r="D224" s="8" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E224" s="8"/>
       <c r="F224" s="8"/>
@@ -7298,7 +7320,7 @@
         <v>33</v>
       </c>
       <c r="D225" s="7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E225" s="7">
         <v>2</v>
@@ -7318,10 +7340,10 @@
         <v>33</v>
       </c>
       <c r="D226" s="8" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E226" s="8" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F226" s="8"/>
       <c r="G226" s="8"/>
@@ -7358,7 +7380,7 @@
         <v>15</v>
       </c>
       <c r="D228" s="8" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E228" s="8">
         <v>9789045678</v>
@@ -7378,7 +7400,7 @@
         <v>15</v>
       </c>
       <c r="D229" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E229" s="7">
         <v>21331</v>
@@ -7398,7 +7420,7 @@
         <v>15</v>
       </c>
       <c r="D230" s="8" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E230" s="8">
         <v>97989898982</v>
@@ -7418,7 +7440,7 @@
         <v>15</v>
       </c>
       <c r="D231" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E231" s="7" t="s">
         <v>144</v>
@@ -7438,10 +7460,10 @@
         <v>15</v>
       </c>
       <c r="D232" s="8" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E232" s="8" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F232" s="8"/>
       <c r="G232" s="8"/>
@@ -7458,7 +7480,7 @@
         <v>15</v>
       </c>
       <c r="D233" s="7" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E233" s="7" t="s">
         <v>144</v>
@@ -7478,7 +7500,7 @@
         <v>15</v>
       </c>
       <c r="D234" s="8" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E234" s="8"/>
       <c r="F234" s="8"/>
@@ -7516,7 +7538,7 @@
         <v>33</v>
       </c>
       <c r="D236" s="8" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E236" s="8"/>
       <c r="F236" s="8"/>
@@ -7534,14 +7556,14 @@
         <v>33</v>
       </c>
       <c r="D237" s="7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E237" s="7"/>
       <c r="F237" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G237" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H237" s="7"/>
     </row>
@@ -7556,7 +7578,7 @@
         <v>33</v>
       </c>
       <c r="D238" s="8" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E238" s="8"/>
       <c r="F238" s="8"/>
@@ -7574,14 +7596,14 @@
         <v>33</v>
       </c>
       <c r="D239" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E239" s="7"/>
       <c r="F239" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G239" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H239" s="7"/>
     </row>
@@ -7596,7 +7618,7 @@
         <v>33</v>
       </c>
       <c r="D240" s="8" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E240" s="8">
         <v>200</v>
@@ -7616,7 +7638,7 @@
         <v>33</v>
       </c>
       <c r="D241" s="7" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E241" s="7"/>
       <c r="F241" s="7" t="s">
@@ -7654,10 +7676,10 @@
         <v>15</v>
       </c>
       <c r="D243" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E243" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F243" s="7"/>
       <c r="G243" s="7"/>
@@ -7668,22 +7690,22 @@
         <v>243</v>
       </c>
       <c r="B244" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="C244" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D244" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="E244" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="C244" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D244" s="8" t="s">
+      <c r="F244" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="E244" s="8" t="s">
+      <c r="G244" s="8" t="s">
         <v>272</v>
-      </c>
-      <c r="F244" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="G244" s="8" t="s">
-        <v>274</v>
       </c>
       <c r="H244" s="8"/>
     </row>
@@ -7698,7 +7720,7 @@
         <v>33</v>
       </c>
       <c r="D245" s="7" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E245" s="7"/>
       <c r="F245" s="7" t="s">
@@ -7736,7 +7758,7 @@
         <v>33</v>
       </c>
       <c r="D247" s="7" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E247" s="7"/>
       <c r="F247" s="7"/>
@@ -7754,7 +7776,7 @@
         <v>33</v>
       </c>
       <c r="D248" s="8" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E248" s="8" t="s">
         <v>97</v>
@@ -7774,7 +7796,7 @@
         <v>33</v>
       </c>
       <c r="D249" s="7" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E249" s="7"/>
       <c r="F249" s="7"/>
@@ -7802,16 +7824,16 @@
         <v>250</v>
       </c>
       <c r="B251" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C251" s="7"/>
       <c r="D251" s="7"/>
       <c r="E251" s="7"/>
       <c r="F251" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G251" s="7" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="H251" s="7"/>
     </row>
@@ -7836,20 +7858,20 @@
         <v>252</v>
       </c>
       <c r="B253" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C253" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D253" s="7" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E253" s="7"/>
       <c r="F253" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G253" s="7" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="H253" s="7"/>
     </row>
@@ -7858,20 +7880,20 @@
         <v>253</v>
       </c>
       <c r="B254" s="8" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C254" s="8" t="s">
         <v>33</v>
       </c>
       <c r="D254" s="8" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E254" s="8"/>
       <c r="F254" s="8" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G254" s="8" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="H254" s="8"/>
     </row>
@@ -7886,14 +7908,14 @@
         <v>33</v>
       </c>
       <c r="D255" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E255" s="7"/>
       <c r="F255" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G255" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H255" s="7"/>
     </row>
@@ -7924,16 +7946,16 @@
         <v>33</v>
       </c>
       <c r="D257" s="7" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E257" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F257" s="7" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G257" s="7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H257" s="7"/>
     </row>
@@ -7948,10 +7970,10 @@
         <v>15</v>
       </c>
       <c r="D258" s="8" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E258" s="8" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F258" s="8"/>
       <c r="G258" s="8"/>
@@ -7968,10 +7990,10 @@
         <v>15</v>
       </c>
       <c r="D259" s="7" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E259" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F259" s="7"/>
       <c r="G259" s="7"/>
@@ -7988,7 +8010,7 @@
         <v>15</v>
       </c>
       <c r="D260" s="8" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E260" s="8" t="s">
         <v>105</v>
@@ -8008,7 +8030,7 @@
         <v>33</v>
       </c>
       <c r="D261" s="7" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E261" s="7">
         <v>2</v>
@@ -8022,13 +8044,13 @@
         <v>261</v>
       </c>
       <c r="B262" s="8" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C262" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D262" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E262" s="8">
         <v>10002</v>
@@ -8048,11 +8070,11 @@
         <v>15</v>
       </c>
       <c r="D263" s="7" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E263" s="7"/>
       <c r="F263" s="7" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="G263" s="7"/>
       <c r="H263" s="7"/>
@@ -8084,7 +8106,7 @@
         <v>33</v>
       </c>
       <c r="D265" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E265" s="7"/>
       <c r="F265" s="7"/>
@@ -8118,13 +8140,13 @@
         <v>33</v>
       </c>
       <c r="D267" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="E267" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="F267" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="E267" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="F267" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="G267" s="7" t="s">
         <v>103</v>
@@ -8142,10 +8164,10 @@
         <v>15</v>
       </c>
       <c r="D268" s="8" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E268" s="8" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F268" s="8" t="s">
         <v>124</v>
@@ -8166,16 +8188,16 @@
         <v>15</v>
       </c>
       <c r="D269" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="E269" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="F269" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="E269" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="F269" s="7" t="s">
-        <v>296</v>
-      </c>
       <c r="G269" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H269" s="7"/>
     </row>
@@ -8190,14 +8212,14 @@
         <v>15</v>
       </c>
       <c r="D270" s="8" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E270" s="8"/>
       <c r="F270" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G270" s="8" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H270" s="8"/>
     </row>
@@ -8232,7 +8254,7 @@
         <v>33</v>
       </c>
       <c r="D272" s="8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E272" s="8"/>
       <c r="F272" s="8"/>
@@ -8266,7 +8288,7 @@
         <v>33</v>
       </c>
       <c r="D274" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E274" s="7"/>
       <c r="F274" s="7" t="s">
@@ -8288,7 +8310,7 @@
         <v>33</v>
       </c>
       <c r="D275" s="8" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E275" s="8"/>
       <c r="F275" s="8" t="s">
@@ -8304,20 +8326,20 @@
         <v>275</v>
       </c>
       <c r="B276" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C276" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D276" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E276" s="7"/>
       <c r="F276" s="7" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G276" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H276" s="7"/>
     </row>
@@ -8332,14 +8354,14 @@
         <v>33</v>
       </c>
       <c r="D277" s="8" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E277" s="8"/>
       <c r="F277" s="8" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G277" s="8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H277" s="8"/>
     </row>
@@ -8348,20 +8370,20 @@
         <v>277</v>
       </c>
       <c r="B278" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C278" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D278" s="7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E278" s="7"/>
       <c r="F278" s="7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G278" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H278" s="7"/>
     </row>
@@ -8376,11 +8398,11 @@
         <v>33</v>
       </c>
       <c r="D279" s="8" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E279" s="8"/>
       <c r="F279" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G279" s="8" t="s">
         <v>18</v>
@@ -8398,11 +8420,11 @@
         <v>33</v>
       </c>
       <c r="D280" s="7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E280" s="7"/>
       <c r="F280" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G280" s="7" t="s">
         <v>18</v>
@@ -8420,11 +8442,11 @@
         <v>33</v>
       </c>
       <c r="D281" s="8" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E281" s="8"/>
       <c r="F281" s="8" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G281" s="8" t="s">
         <v>18</v>
@@ -8442,16 +8464,16 @@
         <v>33</v>
       </c>
       <c r="D282" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E282" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F282" s="7" t="s">
         <v>94</v>
       </c>
       <c r="G282" s="7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H282" s="7"/>
     </row>
@@ -8466,13 +8488,13 @@
         <v>33</v>
       </c>
       <c r="D283" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="E283" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="F283" s="8" t="s">
         <v>317</v>
-      </c>
-      <c r="E283" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="F283" s="8" t="s">
-        <v>319</v>
       </c>
       <c r="G283" s="8" t="s">
         <v>132</v>
@@ -8490,7 +8512,7 @@
         <v>15</v>
       </c>
       <c r="D284" s="7" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E284" s="7"/>
       <c r="F284" s="7"/>
@@ -8508,7 +8530,7 @@
         <v>33</v>
       </c>
       <c r="D285" s="8" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E285" s="8">
         <v>2</v>
@@ -8528,10 +8550,10 @@
         <v>33</v>
       </c>
       <c r="D286" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E286" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F286" s="7"/>
       <c r="G286" s="7"/>
@@ -8568,7 +8590,7 @@
         <v>15</v>
       </c>
       <c r="D288" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E288" s="7">
         <v>9789045678</v>
@@ -8588,7 +8610,7 @@
         <v>15</v>
       </c>
       <c r="D289" s="8" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E289" s="8">
         <v>21331</v>
@@ -8608,7 +8630,7 @@
         <v>15</v>
       </c>
       <c r="D290" s="7" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E290" s="7">
         <v>97989898982</v>
@@ -8628,7 +8650,7 @@
         <v>15</v>
       </c>
       <c r="D291" s="8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E291" s="8" t="s">
         <v>144</v>
@@ -8648,10 +8670,10 @@
         <v>15</v>
       </c>
       <c r="D292" s="7" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E292" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F292" s="7"/>
       <c r="G292" s="7"/>
@@ -8668,7 +8690,7 @@
         <v>15</v>
       </c>
       <c r="D293" s="8" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E293" s="8" t="s">
         <v>144</v>
@@ -8688,7 +8710,7 @@
         <v>15</v>
       </c>
       <c r="D294" s="7" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E294" s="7"/>
       <c r="F294" s="7"/>
@@ -8726,7 +8748,7 @@
         <v>33</v>
       </c>
       <c r="D296" s="7" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E296" s="7"/>
       <c r="F296" s="7"/>
@@ -8744,14 +8766,14 @@
         <v>33</v>
       </c>
       <c r="D297" s="8" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E297" s="8"/>
       <c r="F297" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G297" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H297" s="8"/>
     </row>
@@ -8766,7 +8788,7 @@
         <v>33</v>
       </c>
       <c r="D298" s="7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E298" s="7"/>
       <c r="F298" s="7"/>
@@ -8784,14 +8806,14 @@
         <v>33</v>
       </c>
       <c r="D299" s="8" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E299" s="8"/>
       <c r="F299" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G299" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H299" s="8"/>
     </row>
@@ -8806,7 +8828,7 @@
         <v>33</v>
       </c>
       <c r="D300" s="7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E300" s="7">
         <v>200</v>
@@ -8826,7 +8848,7 @@
         <v>33</v>
       </c>
       <c r="D301" s="8" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E301" s="8"/>
       <c r="F301" s="8" t="s">
@@ -8864,10 +8886,10 @@
         <v>15</v>
       </c>
       <c r="D303" s="8" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E303" s="8" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F303" s="8"/>
       <c r="G303" s="8"/>
@@ -8878,22 +8900,22 @@
         <v>303</v>
       </c>
       <c r="B304" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="C304" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D304" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="E304" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="C304" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D304" s="7" t="s">
+      <c r="F304" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="E304" s="7" t="s">
+      <c r="G304" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="F304" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="G304" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="H304" s="7"/>
     </row>
@@ -8908,7 +8930,7 @@
         <v>33</v>
       </c>
       <c r="D305" s="8" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E305" s="8"/>
       <c r="F305" s="8" t="s">
@@ -8946,7 +8968,7 @@
         <v>33</v>
       </c>
       <c r="D307" s="8" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E307" s="8"/>
       <c r="F307" s="8"/>
@@ -8964,7 +8986,7 @@
         <v>33</v>
       </c>
       <c r="D308" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E308" s="7" t="s">
         <v>97</v>
@@ -8984,7 +9006,7 @@
         <v>33</v>
       </c>
       <c r="D309" s="8" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E309" s="8"/>
       <c r="F309" s="8"/>
@@ -9012,16 +9034,16 @@
         <v>310</v>
       </c>
       <c r="B311" s="8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C311" s="8"/>
       <c r="D311" s="8"/>
       <c r="E311" s="8"/>
       <c r="F311" s="8" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G311" s="8" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="H311" s="8"/>
     </row>
@@ -9046,20 +9068,20 @@
         <v>312</v>
       </c>
       <c r="B313" s="8" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C313" s="8" t="s">
         <v>33</v>
       </c>
       <c r="D313" s="8" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E313" s="8"/>
       <c r="F313" s="8" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G313" s="8" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="H313" s="8"/>
     </row>
@@ -9068,20 +9090,20 @@
         <v>313</v>
       </c>
       <c r="B314" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C314" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D314" s="7" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E314" s="7"/>
       <c r="F314" s="7" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G314" s="7" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="H314" s="7"/>
     </row>
@@ -9096,14 +9118,14 @@
         <v>33</v>
       </c>
       <c r="D315" s="8" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E315" s="8"/>
       <c r="F315" s="8" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G315" s="8" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="H315" s="8"/>
     </row>
@@ -9124,8 +9146,8 @@
       <c r="H316" s="7"/>
     </row>
   </sheetData>
-  <dataValidations count="11">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B3 B94 B95 B137 B17:B37 B38:B86 B87:B92 B97:B112 B119:B131 C2:C3">
+  <dataValidations count="12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B3 B63 B94 B95 B137 B17:B37 B38:B61 B65:B86 B87:B92 B97:B112 B119:B131 C2:C3">
       <formula1/>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
@@ -9142,6 +9164,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C45 C57 C80 C28:C34">
       <formula1>[3]DataList!#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B62 B64">
+      <formula1>[11]DataList!#REF!</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C77">
       <formula1>[4]DataList!#REF!</formula1>
@@ -9186,7 +9211,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -9194,20 +9219,20 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -9218,20 +9243,20 @@
         <v>33</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C6" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -9239,47 +9264,47 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C8" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
+        <v>374</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>376</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C10" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C11" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="14" spans="3:3">
@@ -9289,12 +9314,12 @@
     </row>
     <row r="15" spans="3:3">
       <c r="C15" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="17" spans="3:3">
@@ -9304,45 +9329,45 @@
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" s="2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="26" spans="3:3">
@@ -9352,7 +9377,7 @@
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="28" spans="3:3">
@@ -9362,152 +9387,152 @@
     </row>
     <row r="29" spans="3:3">
       <c r="C29" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="59" spans="3:3">
@@ -9517,204 +9542,204 @@
     </row>
     <row r="60" spans="3:3">
       <c r="C60" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="67" spans="3:3">
       <c r="C67" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="69" spans="3:3">
       <c r="C69" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="71" spans="3:4">
       <c r="C71" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="72" spans="3:3">
       <c r="C72" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="73" spans="3:4">
       <c r="C73" s="2" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="74" spans="3:3">
       <c r="C74" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="75" spans="3:3">
       <c r="C75" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="76" spans="3:3">
       <c r="C76" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="77" spans="3:3">
       <c r="C77" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="78" spans="3:4">
       <c r="C78" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="79" spans="3:4">
       <c r="C79" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="97" spans="3:3">
       <c r="C97" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="98" spans="3:3">
@@ -9724,17 +9749,17 @@
     </row>
     <row r="99" spans="3:3">
       <c r="C99" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="100" spans="3:3">
       <c r="C100" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="101" spans="3:3">
       <c r="C101" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
   </sheetData>

--- a/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Create_PCase_Positive_Alien_POE3.xlsx
+++ b/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Create_PCase_Positive_Alien_POE3.xlsx
@@ -170,7 +170,7 @@
     <t>PATIENT_FUND_NAME</t>
   </si>
   <si>
-    <t>Breast Cancer Silo*</t>
+    <t>Hepatitis C***</t>
   </si>
   <si>
     <t>Enter fund name</t>
@@ -1423,10 +1423,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1461,7 +1461,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1500,22 +1507,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1529,46 +1521,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1591,7 +1545,53 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1618,31 +1618,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1660,13 +1666,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1678,13 +1690,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1696,19 +1792,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1718,92 +1802,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1851,17 +1851,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4" tint="0.399975585192419"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -1885,6 +1874,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1895,21 +1908,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1931,9 +1929,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1946,27 +1946,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1978,130 +1967,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2115,7 +2104,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2620,8 +2609,8 @@
   <sheetPr/>
   <dimension ref="A1:H316"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="E64" sqref="E64"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>

--- a/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Create_PCase_Positive_Alien_POE3.xlsx
+++ b/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Create_PCase_Positive_Alien_POE3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28680" windowHeight="13650"/>
+    <workbookView windowWidth="28680" windowHeight="13230"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1423,10 +1423,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1453,22 +1453,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1482,8 +1476,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1499,15 +1532,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1529,21 +1554,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -1559,29 +1575,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -1591,7 +1584,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1618,19 +1618,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1642,7 +1648,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1654,85 +1660,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1744,19 +1672,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1780,7 +1696,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1792,13 +1768,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1851,9 +1851,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1888,15 +1914,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1912,28 +1929,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1949,13 +1949,13 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1967,130 +1967,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2609,8 +2609,8 @@
   <sheetPr/>
   <dimension ref="A1:H316"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="E121" sqref="E121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -5216,7 +5216,7 @@
       <c r="C121" s="7"/>
       <c r="D121" s="7"/>
       <c r="E121" s="7">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F121" s="7"/>
       <c r="G121" s="7"/>

--- a/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Create_PCase_Positive_Alien_POE3.xlsx
+++ b/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Create_PCase_Positive_Alien_POE3.xlsx
@@ -1423,10 +1423,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1453,9 +1453,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1473,6 +1486,14 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1500,15 +1521,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1522,39 +1575,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1567,31 +1590,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1618,7 +1618,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1630,13 +1660,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1648,19 +1774,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1672,43 +1786,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1720,85 +1798,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1849,13 +1849,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1865,21 +1869,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1914,17 +1903,37 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1937,25 +1946,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1967,130 +1967,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2609,8 +2609,8 @@
   <sheetPr/>
   <dimension ref="A1:H316"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="E121" sqref="E121"/>
+    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="D159" sqref="D159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>

--- a/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Create_PCase_Positive_Alien_POE3.xlsx
+++ b/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Create_PCase_Positive_Alien_POE3.xlsx
@@ -22,6 +22,7 @@
     <externalReference r:id="rId12"/>
     <externalReference r:id="rId13"/>
     <externalReference r:id="rId14"/>
+    <externalReference r:id="rId15"/>
   </externalReferences>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460">
   <si>
     <t>Step No</t>
   </si>
@@ -860,391 +861,394 @@
     <t>Submit button clicked</t>
   </si>
   <si>
+    <t>NEW_CLOSE_BUTTON</t>
+  </si>
+  <si>
+    <t>Close the popup</t>
+  </si>
+  <si>
+    <t>Popup closed</t>
+  </si>
+  <si>
+    <t>BACK_BUTTON</t>
+  </si>
+  <si>
+    <t>Click back button</t>
+  </si>
+  <si>
+    <t>Back button clicked</t>
+  </si>
+  <si>
+    <t>PROVIDER_EXPENDITURE</t>
+  </si>
+  <si>
+    <t>Click on Expenditure</t>
+  </si>
+  <si>
+    <t>Clicked Expenditure</t>
+  </si>
+  <si>
+    <t>CREATE_EXPENDITURE</t>
+  </si>
+  <si>
+    <t>Click Create expenditure</t>
+  </si>
+  <si>
+    <t>Create Expenditure clicked</t>
+  </si>
+  <si>
+    <t>PROVIDER_SEARCH_ICON</t>
+  </si>
+  <si>
+    <t>NAME_TAB_ADD_PROVIDER</t>
+  </si>
+  <si>
+    <t>SEARCH_PROV_STATE</t>
+  </si>
+  <si>
+    <t>Alabama</t>
+  </si>
+  <si>
+    <t>Select State from the search popup</t>
+  </si>
+  <si>
+    <t>SEARCH_PROV_LASTNAME</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>FACILITY/PRACTICE_NAME</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Enter Facility name</t>
+  </si>
+  <si>
+    <t>SEARCH_PROV_SEARCH</t>
+  </si>
+  <si>
+    <t>Click Search button</t>
+  </si>
+  <si>
+    <t>Search clicked</t>
+  </si>
+  <si>
+    <t>CLICK_HERE_PROVIDER</t>
+  </si>
+  <si>
+    <t>ADD_PROV_FIRST_NAME</t>
+  </si>
+  <si>
+    <t>ADD_PROV_LAST_NAME</t>
+  </si>
+  <si>
+    <t>TenDigitPhone</t>
+  </si>
+  <si>
+    <t>ADD_PROV_NPI</t>
+  </si>
+  <si>
+    <t>Enter NPI</t>
+  </si>
+  <si>
+    <t>ADD_PROV_FACILITY_NAME</t>
+  </si>
+  <si>
+    <t>ADD_PROV_TAXID</t>
+  </si>
+  <si>
+    <t>Enter TaxID</t>
+  </si>
+  <si>
+    <t>PAYMENT_TYPE_EFT</t>
+  </si>
+  <si>
+    <t>Click EFT YEs</t>
+  </si>
+  <si>
+    <t>AUTH_PAYMENT_YES</t>
+  </si>
+  <si>
+    <t>Click Auth Payment YEs</t>
+  </si>
+  <si>
+    <t>AUTH_PHYSICIAN_YES</t>
+  </si>
+  <si>
+    <t>Click Auth physician Yes</t>
+  </si>
+  <si>
+    <t>PROV_ADDRESS_TYPE</t>
+  </si>
+  <si>
+    <t>selected</t>
+  </si>
+  <si>
+    <t>ADD_PROV_ADDRESS</t>
+  </si>
+  <si>
+    <t>ADDRESS</t>
+  </si>
+  <si>
+    <t>Type address</t>
+  </si>
+  <si>
+    <t>PROV_SUITE_NO</t>
+  </si>
+  <si>
+    <t>ADD_PROV_PATIENT_STATE</t>
+  </si>
+  <si>
+    <t>ADD_PROV_CITY</t>
+  </si>
+  <si>
+    <t>Chennai</t>
+  </si>
+  <si>
+    <t>PROV_EXT</t>
+  </si>
+  <si>
+    <t>PROV_FAX</t>
+  </si>
+  <si>
+    <t>PATIENT_EMAIL</t>
+  </si>
+  <si>
+    <t>PROV_CONTACT_NAME</t>
+  </si>
+  <si>
+    <t>PROV_OFFICE_MAIL</t>
+  </si>
+  <si>
+    <t>ADD_PROV_ADD_PROVIDER</t>
+  </si>
+  <si>
+    <t>EXPE_DATE_OF_SERVICE_FROM</t>
+  </si>
+  <si>
+    <t>EXPE_DATE_OF_SERVICE_FROM_DATE</t>
+  </si>
+  <si>
+    <t>EXPE_DATE_OF_SERVICE_TO</t>
+  </si>
+  <si>
+    <t>EXPE_DATE_OF_SERVICE_TO_DATE</t>
+  </si>
+  <si>
+    <t>EXPE_AMOUNT_SUBMITTED</t>
+  </si>
+  <si>
+    <t>EXPE_NEXT_BUTTON</t>
+  </si>
+  <si>
+    <t>EXPE_SIGN_SUBMIT</t>
+  </si>
+  <si>
+    <t>EXPE_ELECTRONIC_SIGN</t>
+  </si>
+  <si>
+    <t>POE_ID</t>
+  </si>
+  <si>
+    <t>Get POE ID</t>
+  </si>
+  <si>
+    <t>POE id retrieved</t>
+  </si>
+  <si>
+    <t>VerifyElementIsPresent</t>
+  </si>
+  <si>
+    <t>SUBMITTED_EXPENDITURES</t>
+  </si>
+  <si>
+    <t>Verify Submitted expenditures</t>
+  </si>
+  <si>
+    <t>Verified</t>
+  </si>
+  <si>
+    <t>REMITTER_TO_DROPDOWN</t>
+  </si>
+  <si>
+    <t>Patient</t>
+  </si>
+  <si>
+    <t>2. Select Patient</t>
+  </si>
+  <si>
+    <t>CLAIM_UPDATE_PAYEE</t>
+  </si>
+  <si>
+    <t>ClearAndType</t>
+  </si>
+  <si>
+    <t>CLAIM_PAYEE_ZIPCODE</t>
+  </si>
+  <si>
+    <t>CLAIM_PAYEE_ZIPCODE_VERIFY</t>
+  </si>
+  <si>
+    <t>CLAIM_SEARCH_PROVIDER</t>
+  </si>
+  <si>
+    <t>1.Existing provider search</t>
+  </si>
+  <si>
+    <t>3. Select Other</t>
+  </si>
+  <si>
+    <t>CLAIM_PAYABLE_TO</t>
+  </si>
+  <si>
+    <t>TO</t>
+  </si>
+  <si>
+    <t>CLAIM_PAYABLE_ADDRESS</t>
+  </si>
+  <si>
+    <t>CLAIM_PAYABLE_CITY</t>
+  </si>
+  <si>
+    <t>CLAIM_PAYABLE_STATE</t>
+  </si>
+  <si>
+    <t>PATIENT_LOGOUT</t>
+  </si>
+  <si>
+    <t>Click on logout</t>
+  </si>
+  <si>
+    <t>Logout successfully</t>
+  </si>
+  <si>
+    <t>Actions</t>
+  </si>
+  <si>
+    <t>GetUrl</t>
+  </si>
+  <si>
+    <t>ByName</t>
+  </si>
+  <si>
+    <t>NavigateToURL</t>
+  </si>
+  <si>
+    <t>ByOrName</t>
+  </si>
+  <si>
+    <t>WaitTime</t>
+  </si>
+  <si>
+    <t>ByLinkText</t>
+  </si>
+  <si>
+    <t>Maximize</t>
+  </si>
+  <si>
+    <t>ByTagName</t>
+  </si>
+  <si>
+    <t>ByClassName</t>
+  </si>
+  <si>
+    <t>ActionClick</t>
+  </si>
+  <si>
+    <t>ByCssSelector</t>
+  </si>
+  <si>
+    <t>JsClick</t>
+  </si>
+  <si>
+    <t>Normal Xpath</t>
+  </si>
+  <si>
+    <t>ByPartialLinkText</t>
+  </si>
+  <si>
+    <t>DoubleClick</t>
+  </si>
+  <si>
+    <t>Xpath</t>
+  </si>
+  <si>
+    <t>ClickAt</t>
+  </si>
+  <si>
+    <t>ClickAndHold</t>
+  </si>
+  <si>
+    <t>Clear</t>
+  </si>
+  <si>
+    <t>ActionType</t>
+  </si>
+  <si>
+    <t>Submit</t>
+  </si>
+  <si>
+    <t>MouseOver</t>
+  </si>
+  <si>
+    <t>MouseOverAndClick</t>
+  </si>
+  <si>
+    <t>GetAttribute</t>
+  </si>
+  <si>
+    <t>GetCount</t>
+  </si>
+  <si>
+    <t>GetCurrentURL</t>
+  </si>
+  <si>
+    <t>SelectCheckBox</t>
+  </si>
+  <si>
+    <t>SelectByValue</t>
+  </si>
+  <si>
+    <t>DeSelectCheckBox</t>
+  </si>
+  <si>
+    <t>DeSelectByIndex</t>
+  </si>
+  <si>
+    <t>DeSelectByValue</t>
+  </si>
+  <si>
+    <t>DeSelectByVisibleText</t>
+  </si>
+  <si>
+    <t>SwitchFrameByName</t>
+  </si>
+  <si>
+    <t>SwitchFrameByIndex</t>
+  </si>
+  <si>
+    <t>SwitchFrameByXpath</t>
+  </si>
+  <si>
+    <t>SwitchFrame</t>
+  </si>
+  <si>
+    <t>SwitchToDefaultFrame</t>
+  </si>
+  <si>
+    <t>Refresh</t>
+  </si>
+  <si>
+    <t>Back</t>
+  </si>
+  <si>
+    <t>Forward</t>
+  </si>
+  <si>
     <t>AlertOk</t>
-  </si>
-  <si>
-    <t>BACK_BUTTON</t>
-  </si>
-  <si>
-    <t>Click back button</t>
-  </si>
-  <si>
-    <t>Back button clicked</t>
-  </si>
-  <si>
-    <t>PROVIDER_EXPENDITURE</t>
-  </si>
-  <si>
-    <t>Click on Expenditure</t>
-  </si>
-  <si>
-    <t>Clicked Expenditure</t>
-  </si>
-  <si>
-    <t>CREATE_EXPENDITURE</t>
-  </si>
-  <si>
-    <t>Click Create expenditure</t>
-  </si>
-  <si>
-    <t>Create Expenditure clicked</t>
-  </si>
-  <si>
-    <t>PROVIDER_SEARCH_ICON</t>
-  </si>
-  <si>
-    <t>NAME_TAB_ADD_PROVIDER</t>
-  </si>
-  <si>
-    <t>SEARCH_PROV_STATE</t>
-  </si>
-  <si>
-    <t>Alabama</t>
-  </si>
-  <si>
-    <t>Select State from the search popup</t>
-  </si>
-  <si>
-    <t>SEARCH_PROV_LASTNAME</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>FACILITY/PRACTICE_NAME</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>Enter Facility name</t>
-  </si>
-  <si>
-    <t>SEARCH_PROV_SEARCH</t>
-  </si>
-  <si>
-    <t>Click Search button</t>
-  </si>
-  <si>
-    <t>Search clicked</t>
-  </si>
-  <si>
-    <t>CLICK_HERE_PROVIDER</t>
-  </si>
-  <si>
-    <t>ADD_PROV_FIRST_NAME</t>
-  </si>
-  <si>
-    <t>ADD_PROV_LAST_NAME</t>
-  </si>
-  <si>
-    <t>TenDigitPhone</t>
-  </si>
-  <si>
-    <t>ADD_PROV_NPI</t>
-  </si>
-  <si>
-    <t>Enter NPI</t>
-  </si>
-  <si>
-    <t>ADD_PROV_FACILITY_NAME</t>
-  </si>
-  <si>
-    <t>ADD_PROV_TAXID</t>
-  </si>
-  <si>
-    <t>Enter TaxID</t>
-  </si>
-  <si>
-    <t>PAYMENT_TYPE_EFT</t>
-  </si>
-  <si>
-    <t>Click EFT YEs</t>
-  </si>
-  <si>
-    <t>AUTH_PAYMENT_YES</t>
-  </si>
-  <si>
-    <t>Click Auth Payment YEs</t>
-  </si>
-  <si>
-    <t>AUTH_PHYSICIAN_YES</t>
-  </si>
-  <si>
-    <t>Click Auth physician Yes</t>
-  </si>
-  <si>
-    <t>PROV_ADDRESS_TYPE</t>
-  </si>
-  <si>
-    <t>selected</t>
-  </si>
-  <si>
-    <t>ADD_PROV_ADDRESS</t>
-  </si>
-  <si>
-    <t>ADDRESS</t>
-  </si>
-  <si>
-    <t>Type address</t>
-  </si>
-  <si>
-    <t>PROV_SUITE_NO</t>
-  </si>
-  <si>
-    <t>ADD_PROV_PATIENT_STATE</t>
-  </si>
-  <si>
-    <t>ADD_PROV_CITY</t>
-  </si>
-  <si>
-    <t>Chennai</t>
-  </si>
-  <si>
-    <t>PROV_EXT</t>
-  </si>
-  <si>
-    <t>PROV_FAX</t>
-  </si>
-  <si>
-    <t>PATIENT_EMAIL</t>
-  </si>
-  <si>
-    <t>PROV_CONTACT_NAME</t>
-  </si>
-  <si>
-    <t>PROV_OFFICE_MAIL</t>
-  </si>
-  <si>
-    <t>ADD_PROV_ADD_PROVIDER</t>
-  </si>
-  <si>
-    <t>EXPE_DATE_OF_SERVICE_FROM</t>
-  </si>
-  <si>
-    <t>EXPE_DATE_OF_SERVICE_FROM_DATE</t>
-  </si>
-  <si>
-    <t>EXPE_DATE_OF_SERVICE_TO</t>
-  </si>
-  <si>
-    <t>EXPE_DATE_OF_SERVICE_TO_DATE</t>
-  </si>
-  <si>
-    <t>EXPE_AMOUNT_SUBMITTED</t>
-  </si>
-  <si>
-    <t>EXPE_NEXT_BUTTON</t>
-  </si>
-  <si>
-    <t>EXPE_SIGN_SUBMIT</t>
-  </si>
-  <si>
-    <t>EXPE_ELECTRONIC_SIGN</t>
-  </si>
-  <si>
-    <t>Click ok to Pcase alert</t>
-  </si>
-  <si>
-    <t>Pcase alert clicked</t>
-  </si>
-  <si>
-    <t>POE_ID</t>
-  </si>
-  <si>
-    <t>Get POE ID</t>
-  </si>
-  <si>
-    <t>POE id retrieved</t>
-  </si>
-  <si>
-    <t>VerifyElementIsPresent</t>
-  </si>
-  <si>
-    <t>SUBMITTED_EXPENDITURES</t>
-  </si>
-  <si>
-    <t>Verify Submitted expenditures</t>
-  </si>
-  <si>
-    <t>Verified</t>
-  </si>
-  <si>
-    <t>REMITTER_TO_DROPDOWN</t>
-  </si>
-  <si>
-    <t>Patient</t>
-  </si>
-  <si>
-    <t>2. Select Patient</t>
-  </si>
-  <si>
-    <t>CLAIM_UPDATE_PAYEE</t>
-  </si>
-  <si>
-    <t>ClearAndType</t>
-  </si>
-  <si>
-    <t>CLAIM_PAYEE_ZIPCODE</t>
-  </si>
-  <si>
-    <t>CLAIM_PAYEE_ZIPCODE_VERIFY</t>
-  </si>
-  <si>
-    <t>CLAIM_SEARCH_PROVIDER</t>
-  </si>
-  <si>
-    <t>1.Existing provider search</t>
-  </si>
-  <si>
-    <t>3. Select Other</t>
-  </si>
-  <si>
-    <t>CLAIM_PAYABLE_TO</t>
-  </si>
-  <si>
-    <t>TO</t>
-  </si>
-  <si>
-    <t>CLAIM_PAYABLE_ADDRESS</t>
-  </si>
-  <si>
-    <t>CLAIM_PAYABLE_CITY</t>
-  </si>
-  <si>
-    <t>CLAIM_PAYABLE_STATE</t>
-  </si>
-  <si>
-    <t>PATIENT_LOGOUT</t>
-  </si>
-  <si>
-    <t>Click on logout</t>
-  </si>
-  <si>
-    <t>Logout successfully</t>
-  </si>
-  <si>
-    <t>Actions</t>
-  </si>
-  <si>
-    <t>GetUrl</t>
-  </si>
-  <si>
-    <t>ByName</t>
-  </si>
-  <si>
-    <t>NavigateToURL</t>
-  </si>
-  <si>
-    <t>ByOrName</t>
-  </si>
-  <si>
-    <t>WaitTime</t>
-  </si>
-  <si>
-    <t>ByLinkText</t>
-  </si>
-  <si>
-    <t>Maximize</t>
-  </si>
-  <si>
-    <t>ByTagName</t>
-  </si>
-  <si>
-    <t>ByClassName</t>
-  </si>
-  <si>
-    <t>ActionClick</t>
-  </si>
-  <si>
-    <t>ByCssSelector</t>
-  </si>
-  <si>
-    <t>JsClick</t>
-  </si>
-  <si>
-    <t>Normal Xpath</t>
-  </si>
-  <si>
-    <t>ByPartialLinkText</t>
-  </si>
-  <si>
-    <t>DoubleClick</t>
-  </si>
-  <si>
-    <t>Xpath</t>
-  </si>
-  <si>
-    <t>ClickAt</t>
-  </si>
-  <si>
-    <t>ClickAndHold</t>
-  </si>
-  <si>
-    <t>Clear</t>
-  </si>
-  <si>
-    <t>ActionType</t>
-  </si>
-  <si>
-    <t>Submit</t>
-  </si>
-  <si>
-    <t>MouseOver</t>
-  </si>
-  <si>
-    <t>MouseOverAndClick</t>
-  </si>
-  <si>
-    <t>GetAttribute</t>
-  </si>
-  <si>
-    <t>GetCount</t>
-  </si>
-  <si>
-    <t>GetCurrentURL</t>
-  </si>
-  <si>
-    <t>SelectCheckBox</t>
-  </si>
-  <si>
-    <t>SelectByValue</t>
-  </si>
-  <si>
-    <t>DeSelectCheckBox</t>
-  </si>
-  <si>
-    <t>DeSelectByIndex</t>
-  </si>
-  <si>
-    <t>DeSelectByValue</t>
-  </si>
-  <si>
-    <t>DeSelectByVisibleText</t>
-  </si>
-  <si>
-    <t>SwitchFrameByName</t>
-  </si>
-  <si>
-    <t>SwitchFrameByIndex</t>
-  </si>
-  <si>
-    <t>SwitchFrameByXpath</t>
-  </si>
-  <si>
-    <t>SwitchFrame</t>
-  </si>
-  <si>
-    <t>SwitchToDefaultFrame</t>
-  </si>
-  <si>
-    <t>Refresh</t>
-  </si>
-  <si>
-    <t>Back</t>
-  </si>
-  <si>
-    <t>Forward</t>
   </si>
   <si>
     <t>DismissAlert</t>
@@ -1420,12 +1424,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1450,26 +1454,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1487,23 +1474,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1533,9 +1514,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1549,9 +1530,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1564,16 +1544,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1587,14 +1581,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1615,13 +1624,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.799951170384838"/>
+        <bgColor theme="4" tint="0.799951170384838"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1633,19 +1654,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1657,13 +1690,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1675,7 +1714,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1687,73 +1738,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1765,7 +1750,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1783,19 +1768,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1864,17 +1879,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1895,6 +1899,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1929,30 +1948,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1964,134 +1979,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2102,6 +2117,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2194,6 +2211,21 @@
 </file>
 
 <file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="DataList"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink12.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2606,8 +2638,8 @@
   <sheetPr/>
   <dimension ref="A1:H315"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A277" workbookViewId="0">
+      <selection activeCell="B310" sqref="B310:G310"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -3163,7 +3195,7 @@
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>39</v>
@@ -3345,7 +3377,7 @@
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
       <c r="E34" s="8">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F34" s="8" t="s">
         <v>12</v>
@@ -3591,7 +3623,7 @@
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
       <c r="E45" s="7">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F45" s="7" t="s">
         <v>12</v>
@@ -5337,14 +5369,22 @@
       <c r="A127" s="7">
         <v>127</v>
       </c>
-      <c r="B127" s="8" t="s">
+      <c r="B127" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C127" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D127" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="C127" s="8"/>
-      <c r="D127" s="8"/>
-      <c r="E127" s="8"/>
-      <c r="F127" s="8"/>
-      <c r="G127" s="8"/>
+      <c r="E127" s="10"/>
+      <c r="F127" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="G127" s="10" t="s">
+        <v>276</v>
+      </c>
       <c r="H127" s="8"/>
     </row>
     <row r="128" spans="1:8">
@@ -5378,14 +5418,14 @@
         <v>15</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E129" s="8"/>
       <c r="F129" s="8" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="G129" s="8" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="H129" s="8"/>
     </row>
@@ -5534,14 +5574,14 @@
         <v>15</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E137" s="8"/>
       <c r="F137" s="8" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="G137" s="8" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="H137" s="8"/>
     </row>
@@ -5572,14 +5612,14 @@
         <v>33</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="E139" s="8"/>
       <c r="F139" s="8" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="G139" s="8" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H139" s="8"/>
     </row>
@@ -5610,7 +5650,7 @@
         <v>15</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E141" s="8"/>
       <c r="F141" s="8"/>
@@ -5644,7 +5684,7 @@
         <v>33</v>
       </c>
       <c r="D143" s="8" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E143" s="8"/>
       <c r="F143" s="8"/>
@@ -5678,13 +5718,13 @@
         <v>33</v>
       </c>
       <c r="D145" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E145" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F145" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="G145" s="7" t="s">
         <v>102</v>
@@ -5702,10 +5742,10 @@
         <v>15</v>
       </c>
       <c r="D146" s="8" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E146" s="8" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="F146" s="8" t="s">
         <v>123</v>
@@ -5726,13 +5766,13 @@
         <v>15</v>
       </c>
       <c r="D147" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E147" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F147" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="G147" s="7" t="s">
         <v>180</v>
@@ -5750,14 +5790,14 @@
         <v>15</v>
       </c>
       <c r="D148" s="8" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E148" s="8"/>
       <c r="F148" s="8" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="G148" s="8" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="H148" s="8"/>
     </row>
@@ -5792,7 +5832,7 @@
         <v>33</v>
       </c>
       <c r="D150" s="8" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E150" s="8"/>
       <c r="F150" s="8"/>
@@ -5826,7 +5866,7 @@
         <v>33</v>
       </c>
       <c r="D152" s="8" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E152" s="8"/>
       <c r="F152" s="8" t="s">
@@ -5848,7 +5888,7 @@
         <v>33</v>
       </c>
       <c r="D153" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E153" s="7"/>
       <c r="F153" s="7" t="s">
@@ -5864,17 +5904,17 @@
         <v>154</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C154" s="8" t="s">
         <v>33</v>
       </c>
       <c r="D154" s="8" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="E154" s="8"/>
       <c r="F154" s="8" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G154" s="8" t="s">
         <v>180</v>
@@ -5892,11 +5932,11 @@
         <v>33</v>
       </c>
       <c r="D155" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E155" s="7"/>
       <c r="F155" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="G155" s="7" t="s">
         <v>180</v>
@@ -5908,17 +5948,17 @@
         <v>156</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C156" s="8" t="s">
         <v>33</v>
       </c>
       <c r="D156" s="8" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E156" s="8"/>
       <c r="F156" s="8" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="G156" s="8" t="s">
         <v>180</v>
@@ -5936,11 +5976,11 @@
         <v>33</v>
       </c>
       <c r="D157" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E157" s="7"/>
       <c r="F157" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="G157" s="7" t="s">
         <v>18</v>
@@ -5958,11 +5998,11 @@
         <v>33</v>
       </c>
       <c r="D158" s="8" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E158" s="8"/>
       <c r="F158" s="8" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G158" s="8" t="s">
         <v>18</v>
@@ -5980,11 +6020,11 @@
         <v>33</v>
       </c>
       <c r="D159" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="E159" s="7"/>
       <c r="F159" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="G159" s="7" t="s">
         <v>18</v>
@@ -6002,7 +6042,7 @@
         <v>33</v>
       </c>
       <c r="D160" s="8" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="E160" s="8" t="s">
         <v>194</v>
@@ -6011,7 +6051,7 @@
         <v>93</v>
       </c>
       <c r="G160" s="8" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="H160" s="8"/>
     </row>
@@ -6026,13 +6066,13 @@
         <v>33</v>
       </c>
       <c r="D161" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E161" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F161" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="G161" s="7" t="s">
         <v>131</v>
@@ -6050,7 +6090,7 @@
         <v>15</v>
       </c>
       <c r="D162" s="8" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E162" s="8"/>
       <c r="F162" s="8"/>
@@ -6068,7 +6108,7 @@
         <v>33</v>
       </c>
       <c r="D163" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="E163" s="7">
         <v>2</v>
@@ -6088,10 +6128,10 @@
         <v>33</v>
       </c>
       <c r="D164" s="8" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="E164" s="8" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="F164" s="8"/>
       <c r="G164" s="8"/>
@@ -6148,7 +6188,7 @@
         <v>15</v>
       </c>
       <c r="D167" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="E167" s="7">
         <v>21331</v>
@@ -6168,7 +6208,7 @@
         <v>15</v>
       </c>
       <c r="D168" s="8" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="E168" s="8">
         <v>97989898982</v>
@@ -6188,7 +6228,7 @@
         <v>15</v>
       </c>
       <c r="D169" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="E169" s="7" t="s">
         <v>143</v>
@@ -6208,7 +6248,7 @@
         <v>15</v>
       </c>
       <c r="D170" s="8" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="E170" s="8" t="s">
         <v>222</v>
@@ -6228,7 +6268,7 @@
         <v>15</v>
       </c>
       <c r="D171" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="E171" s="7" t="s">
         <v>143</v>
@@ -6248,7 +6288,7 @@
         <v>15</v>
       </c>
       <c r="D172" s="8" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="E172" s="8"/>
       <c r="F172" s="8"/>
@@ -6286,7 +6326,7 @@
         <v>33</v>
       </c>
       <c r="D174" s="8" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="E174" s="8"/>
       <c r="F174" s="8"/>
@@ -6304,7 +6344,7 @@
         <v>33</v>
       </c>
       <c r="D175" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="E175" s="7"/>
       <c r="F175" s="7" t="s">
@@ -6326,7 +6366,7 @@
         <v>33</v>
       </c>
       <c r="D176" s="8" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="E176" s="8"/>
       <c r="F176" s="8"/>
@@ -6344,7 +6384,7 @@
         <v>33</v>
       </c>
       <c r="D177" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="E177" s="7"/>
       <c r="F177" s="7" t="s">
@@ -6366,7 +6406,7 @@
         <v>33</v>
       </c>
       <c r="D178" s="8" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E178" s="8">
         <v>200</v>
@@ -6386,7 +6426,7 @@
         <v>33</v>
       </c>
       <c r="D179" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E179" s="7"/>
       <c r="F179" s="7" t="s">
@@ -6468,7 +6508,7 @@
         <v>33</v>
       </c>
       <c r="D183" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E183" s="7"/>
       <c r="F183" s="7" t="s">
@@ -6506,7 +6546,7 @@
         <v>33</v>
       </c>
       <c r="D185" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E185" s="7"/>
       <c r="F185" s="7"/>
@@ -6524,7 +6564,7 @@
         <v>33</v>
       </c>
       <c r="D186" s="8" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E186" s="8" t="s">
         <v>96</v>
@@ -6544,7 +6584,7 @@
         <v>33</v>
       </c>
       <c r="D187" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E187" s="7"/>
       <c r="F187" s="7"/>
@@ -6571,17 +6611,21 @@
       <c r="A189" s="7">
         <v>189</v>
       </c>
-      <c r="B189" s="7" t="s">
+      <c r="B189" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C189" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D189" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="C189" s="7"/>
-      <c r="D189" s="7"/>
-      <c r="E189" s="7"/>
-      <c r="F189" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="G189" s="7" t="s">
-        <v>336</v>
+      <c r="E189" s="10"/>
+      <c r="F189" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="G189" s="10" t="s">
+        <v>276</v>
       </c>
       <c r="H189" s="7"/>
     </row>
@@ -6656,14 +6700,14 @@
         <v>33</v>
       </c>
       <c r="D193" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="E193" s="7"/>
       <c r="F193" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="G193" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H193" s="7"/>
     </row>
@@ -6703,7 +6747,7 @@
         <v>346</v>
       </c>
       <c r="G195" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="H195" s="7"/>
     </row>
@@ -6860,7 +6904,7 @@
         <v>33</v>
       </c>
       <c r="D204" s="8" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E204" s="8"/>
       <c r="F204" s="8"/>
@@ -6894,13 +6938,13 @@
         <v>33</v>
       </c>
       <c r="D206" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E206" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F206" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="G206" s="7" t="s">
         <v>102</v>
@@ -6918,10 +6962,10 @@
         <v>15</v>
       </c>
       <c r="D207" s="8" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E207" s="8" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="F207" s="8" t="s">
         <v>123</v>
@@ -6942,13 +6986,13 @@
         <v>15</v>
       </c>
       <c r="D208" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E208" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F208" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="G208" s="7" t="s">
         <v>180</v>
@@ -6966,14 +7010,14 @@
         <v>15</v>
       </c>
       <c r="D209" s="8" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E209" s="8"/>
       <c r="F209" s="8" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="G209" s="8" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="H209" s="8"/>
     </row>
@@ -7008,7 +7052,7 @@
         <v>33</v>
       </c>
       <c r="D211" s="8" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E211" s="8"/>
       <c r="F211" s="8"/>
@@ -7042,7 +7086,7 @@
         <v>33</v>
       </c>
       <c r="D213" s="8" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E213" s="8"/>
       <c r="F213" s="8" t="s">
@@ -7064,7 +7108,7 @@
         <v>33</v>
       </c>
       <c r="D214" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E214" s="7"/>
       <c r="F214" s="7" t="s">
@@ -7080,17 +7124,17 @@
         <v>215</v>
       </c>
       <c r="B215" s="8" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C215" s="8" t="s">
         <v>33</v>
       </c>
       <c r="D215" s="8" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="E215" s="8"/>
       <c r="F215" s="8" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G215" s="8" t="s">
         <v>180</v>
@@ -7108,11 +7152,11 @@
         <v>33</v>
       </c>
       <c r="D216" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E216" s="7"/>
       <c r="F216" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="G216" s="7" t="s">
         <v>180</v>
@@ -7124,17 +7168,17 @@
         <v>217</v>
       </c>
       <c r="B217" s="8" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C217" s="8" t="s">
         <v>33</v>
       </c>
       <c r="D217" s="8" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E217" s="8"/>
       <c r="F217" s="8" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="G217" s="8" t="s">
         <v>180</v>
@@ -7152,11 +7196,11 @@
         <v>33</v>
       </c>
       <c r="D218" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E218" s="7"/>
       <c r="F218" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="G218" s="7" t="s">
         <v>18</v>
@@ -7174,11 +7218,11 @@
         <v>33</v>
       </c>
       <c r="D219" s="8" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E219" s="8"/>
       <c r="F219" s="8" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G219" s="8" t="s">
         <v>18</v>
@@ -7196,11 +7240,11 @@
         <v>33</v>
       </c>
       <c r="D220" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="E220" s="7"/>
       <c r="F220" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="G220" s="7" t="s">
         <v>18</v>
@@ -7218,7 +7262,7 @@
         <v>33</v>
       </c>
       <c r="D221" s="8" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="E221" s="8" t="s">
         <v>194</v>
@@ -7227,7 +7271,7 @@
         <v>93</v>
       </c>
       <c r="G221" s="8" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="H221" s="8"/>
     </row>
@@ -7242,13 +7286,13 @@
         <v>33</v>
       </c>
       <c r="D222" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E222" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F222" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="G222" s="7" t="s">
         <v>131</v>
@@ -7266,7 +7310,7 @@
         <v>15</v>
       </c>
       <c r="D223" s="8" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E223" s="8"/>
       <c r="F223" s="8"/>
@@ -7284,7 +7328,7 @@
         <v>33</v>
       </c>
       <c r="D224" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="E224" s="7">
         <v>2</v>
@@ -7304,10 +7348,10 @@
         <v>33</v>
       </c>
       <c r="D225" s="8" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="E225" s="8" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="F225" s="8"/>
       <c r="G225" s="8"/>
@@ -7364,7 +7408,7 @@
         <v>15</v>
       </c>
       <c r="D228" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="E228" s="7">
         <v>21331</v>
@@ -7384,7 +7428,7 @@
         <v>15</v>
       </c>
       <c r="D229" s="8" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="E229" s="8">
         <v>97989898982</v>
@@ -7404,7 +7448,7 @@
         <v>15</v>
       </c>
       <c r="D230" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="E230" s="7" t="s">
         <v>143</v>
@@ -7424,7 +7468,7 @@
         <v>15</v>
       </c>
       <c r="D231" s="8" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="E231" s="8" t="s">
         <v>222</v>
@@ -7444,7 +7488,7 @@
         <v>15</v>
       </c>
       <c r="D232" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="E232" s="7" t="s">
         <v>143</v>
@@ -7464,7 +7508,7 @@
         <v>15</v>
       </c>
       <c r="D233" s="8" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="E233" s="8"/>
       <c r="F233" s="8"/>
@@ -7502,7 +7546,7 @@
         <v>33</v>
       </c>
       <c r="D235" s="8" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="E235" s="8"/>
       <c r="F235" s="8"/>
@@ -7520,7 +7564,7 @@
         <v>33</v>
       </c>
       <c r="D236" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="E236" s="7"/>
       <c r="F236" s="7" t="s">
@@ -7542,7 +7586,7 @@
         <v>33</v>
       </c>
       <c r="D237" s="8" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="E237" s="8"/>
       <c r="F237" s="8"/>
@@ -7560,7 +7604,7 @@
         <v>33</v>
       </c>
       <c r="D238" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="E238" s="7"/>
       <c r="F238" s="7" t="s">
@@ -7582,7 +7626,7 @@
         <v>33</v>
       </c>
       <c r="D239" s="8" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E239" s="8">
         <v>200</v>
@@ -7602,7 +7646,7 @@
         <v>33</v>
       </c>
       <c r="D240" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E240" s="7"/>
       <c r="F240" s="7" t="s">
@@ -7684,7 +7728,7 @@
         <v>33</v>
       </c>
       <c r="D244" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E244" s="7"/>
       <c r="F244" s="7" t="s">
@@ -7722,7 +7766,7 @@
         <v>33</v>
       </c>
       <c r="D246" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E246" s="7"/>
       <c r="F246" s="7"/>
@@ -7740,7 +7784,7 @@
         <v>33</v>
       </c>
       <c r="D247" s="8" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E247" s="8" t="s">
         <v>96</v>
@@ -7760,7 +7804,7 @@
         <v>33</v>
       </c>
       <c r="D248" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E248" s="7"/>
       <c r="F248" s="7"/>
@@ -7787,17 +7831,21 @@
       <c r="A250" s="7">
         <v>250</v>
       </c>
-      <c r="B250" s="7" t="s">
+      <c r="B250" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C250" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D250" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="C250" s="7"/>
-      <c r="D250" s="7"/>
-      <c r="E250" s="7"/>
-      <c r="F250" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="G250" s="7" t="s">
-        <v>336</v>
+      <c r="E250" s="10"/>
+      <c r="F250" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="G250" s="10" t="s">
+        <v>276</v>
       </c>
       <c r="H250" s="7"/>
     </row>
@@ -7872,14 +7920,14 @@
         <v>33</v>
       </c>
       <c r="D254" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="E254" s="7"/>
       <c r="F254" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="G254" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="H254" s="7"/>
     </row>
@@ -7919,7 +7967,7 @@
         <v>353</v>
       </c>
       <c r="G256" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="H256" s="7"/>
     </row>
@@ -7957,7 +8005,7 @@
         <v>356</v>
       </c>
       <c r="E258" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F258" s="7"/>
       <c r="G258" s="7"/>
@@ -8070,7 +8118,7 @@
         <v>33</v>
       </c>
       <c r="D264" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E264" s="7"/>
       <c r="F264" s="7"/>
@@ -8104,13 +8152,13 @@
         <v>33</v>
       </c>
       <c r="D266" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E266" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F266" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="G266" s="7" t="s">
         <v>102</v>
@@ -8128,10 +8176,10 @@
         <v>15</v>
       </c>
       <c r="D267" s="8" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E267" s="8" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="F267" s="8" t="s">
         <v>123</v>
@@ -8152,13 +8200,13 @@
         <v>15</v>
       </c>
       <c r="D268" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E268" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F268" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="G268" s="7" t="s">
         <v>180</v>
@@ -8176,14 +8224,14 @@
         <v>15</v>
       </c>
       <c r="D269" s="8" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E269" s="8"/>
       <c r="F269" s="8" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="G269" s="8" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="H269" s="8"/>
     </row>
@@ -8218,7 +8266,7 @@
         <v>33</v>
       </c>
       <c r="D271" s="8" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E271" s="8"/>
       <c r="F271" s="8"/>
@@ -8252,7 +8300,7 @@
         <v>33</v>
       </c>
       <c r="D273" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E273" s="7"/>
       <c r="F273" s="7" t="s">
@@ -8274,7 +8322,7 @@
         <v>33</v>
       </c>
       <c r="D274" s="8" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E274" s="8"/>
       <c r="F274" s="8" t="s">
@@ -8290,17 +8338,17 @@
         <v>275</v>
       </c>
       <c r="B275" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C275" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D275" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="E275" s="7"/>
       <c r="F275" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G275" s="7" t="s">
         <v>180</v>
@@ -8318,11 +8366,11 @@
         <v>33</v>
       </c>
       <c r="D276" s="8" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E276" s="8"/>
       <c r="F276" s="8" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="G276" s="8" t="s">
         <v>180</v>
@@ -8334,17 +8382,17 @@
         <v>277</v>
       </c>
       <c r="B277" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C277" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D277" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E277" s="7"/>
       <c r="F277" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="G277" s="7" t="s">
         <v>180</v>
@@ -8362,11 +8410,11 @@
         <v>33</v>
       </c>
       <c r="D278" s="8" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E278" s="8"/>
       <c r="F278" s="8" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="G278" s="8" t="s">
         <v>18</v>
@@ -8384,11 +8432,11 @@
         <v>33</v>
       </c>
       <c r="D279" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E279" s="7"/>
       <c r="F279" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G279" s="7" t="s">
         <v>18</v>
@@ -8406,11 +8454,11 @@
         <v>33</v>
       </c>
       <c r="D280" s="8" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="E280" s="8"/>
       <c r="F280" s="8" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="G280" s="8" t="s">
         <v>18</v>
@@ -8428,7 +8476,7 @@
         <v>33</v>
       </c>
       <c r="D281" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="E281" s="7" t="s">
         <v>194</v>
@@ -8437,7 +8485,7 @@
         <v>93</v>
       </c>
       <c r="G281" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="H281" s="7"/>
     </row>
@@ -8452,13 +8500,13 @@
         <v>33</v>
       </c>
       <c r="D282" s="8" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E282" s="8" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F282" s="8" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="G282" s="8" t="s">
         <v>131</v>
@@ -8476,7 +8524,7 @@
         <v>15</v>
       </c>
       <c r="D283" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E283" s="7"/>
       <c r="F283" s="7"/>
@@ -8494,7 +8542,7 @@
         <v>33</v>
       </c>
       <c r="D284" s="8" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="E284" s="8">
         <v>2</v>
@@ -8514,10 +8562,10 @@
         <v>33</v>
       </c>
       <c r="D285" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="E285" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="F285" s="7"/>
       <c r="G285" s="7"/>
@@ -8574,7 +8622,7 @@
         <v>15</v>
       </c>
       <c r="D288" s="8" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="E288" s="8">
         <v>21331</v>
@@ -8594,7 +8642,7 @@
         <v>15</v>
       </c>
       <c r="D289" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="E289" s="7">
         <v>97989898982</v>
@@ -8614,7 +8662,7 @@
         <v>15</v>
       </c>
       <c r="D290" s="8" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="E290" s="8" t="s">
         <v>143</v>
@@ -8634,7 +8682,7 @@
         <v>15</v>
       </c>
       <c r="D291" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="E291" s="7" t="s">
         <v>222</v>
@@ -8654,7 +8702,7 @@
         <v>15</v>
       </c>
       <c r="D292" s="8" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="E292" s="8" t="s">
         <v>143</v>
@@ -8674,7 +8722,7 @@
         <v>15</v>
       </c>
       <c r="D293" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="E293" s="7"/>
       <c r="F293" s="7"/>
@@ -8712,7 +8760,7 @@
         <v>33</v>
       </c>
       <c r="D295" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="E295" s="7"/>
       <c r="F295" s="7"/>
@@ -8730,7 +8778,7 @@
         <v>33</v>
       </c>
       <c r="D296" s="8" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="E296" s="8"/>
       <c r="F296" s="8" t="s">
@@ -8752,7 +8800,7 @@
         <v>33</v>
       </c>
       <c r="D297" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="E297" s="7"/>
       <c r="F297" s="7"/>
@@ -8770,7 +8818,7 @@
         <v>33</v>
       </c>
       <c r="D298" s="8" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="E298" s="8"/>
       <c r="F298" s="8" t="s">
@@ -8792,7 +8840,7 @@
         <v>33</v>
       </c>
       <c r="D299" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E299" s="7">
         <v>200</v>
@@ -8812,7 +8860,7 @@
         <v>33</v>
       </c>
       <c r="D300" s="8" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E300" s="8"/>
       <c r="F300" s="8" t="s">
@@ -8894,7 +8942,7 @@
         <v>33</v>
       </c>
       <c r="D304" s="8" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E304" s="8"/>
       <c r="F304" s="8" t="s">
@@ -8932,7 +8980,7 @@
         <v>33</v>
       </c>
       <c r="D306" s="8" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E306" s="8"/>
       <c r="F306" s="8"/>
@@ -8950,7 +8998,7 @@
         <v>33</v>
       </c>
       <c r="D307" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E307" s="7" t="s">
         <v>96</v>
@@ -8970,7 +9018,7 @@
         <v>33</v>
       </c>
       <c r="D308" s="8" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E308" s="8"/>
       <c r="F308" s="8"/>
@@ -8997,17 +9045,21 @@
       <c r="A310" s="7">
         <v>310</v>
       </c>
-      <c r="B310" s="8" t="s">
+      <c r="B310" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C310" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D310" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="C310" s="8"/>
-      <c r="D310" s="8"/>
-      <c r="E310" s="8"/>
-      <c r="F310" s="8" t="s">
-        <v>335</v>
-      </c>
-      <c r="G310" s="8" t="s">
-        <v>336</v>
+      <c r="E310" s="10"/>
+      <c r="F310" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="G310" s="10" t="s">
+        <v>276</v>
       </c>
       <c r="H310" s="8"/>
     </row>
@@ -9110,8 +9162,8 @@
       <c r="H315" s="7"/>
     </row>
   </sheetData>
-  <dataValidations count="12">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B3 B62 B93 B94 B136 B17:B32 B33:B36 B37:B60 B64:B85 B86:B91 B96:B111 B118:B130 C2:C3">
+  <dataValidations count="13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B3 B62 B93 B94 B136 B17:B32 B33:B36 B37:B60 B64:B85 B86:B91 B96:B111 B118:B126 B128:B130 C2:C3">
       <formula1/>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
@@ -9135,7 +9187,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C76">
       <formula1>[4]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B139 C139 B140 C140 B143 C143 B144 C144 B193 C193 B194 B199 C199 C200 B204 C204 B205 C205 B254 C254 B255 B258 B259 B260 C260 B261 C261 B264 C264 B265 C265 B174:B183 B184:B192 B195:B196 B197:B198 B200:B201 B202:B203 B235:B244 B245:B253 B256:B257 B262:B263 B295:B304 B305:B313 B314:B315 C174:C183 C184:C192 C194:C196 C197:C198 C202:C203 C235:C244 C245:C253 C255:C257 C258:C259 C262:C263 C295:C304 C305:C313 C314:C315">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B127 C127 B189 C189 B250 C250 B310 C310">
+      <formula1>[12]DataList!#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B139 C139 B140 C140 B143 C143 B144 C144 B193 C193 B194 B199 C199 C200 B204 C204 B205 C205 B254 C254 B255 B258 B259 B260 C260 B261 C261 B264 C264 B265 C265 B174:B183 B184:B188 B190:B192 B195:B196 B197:B198 B200:B201 B202:B203 B235:B244 B245:B249 B251:B253 B256:B257 B262:B263 B295:B304 B305:B309 B311:B313 B314:B315 C174:C183 C184:C188 C190:C192 C194:C196 C197:C198 C202:C203 C235:C244 C245:C249 C251:C253 C255:C257 C258:C259 C262:C263 C295:C304 C305:C309 C311:C313 C314:C315">
       <formula1>[9]DataList!#REF!</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B234 C234 B294 C294 B141:B142 B145:B173 B206:B212 B213:B233 B266:B272 B273:B293 C141:C142 C145:C173 C206:C212 C213:C233 C266:C272 C273:C293">
@@ -9411,92 +9466,92 @@
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>274</v>
+        <v>403</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="59" spans="3:3">
@@ -9506,37 +9561,37 @@
     </row>
     <row r="60" spans="3:3">
       <c r="C60" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="67" spans="3:3">
@@ -9546,22 +9601,22 @@
     </row>
     <row r="68" spans="3:3">
       <c r="C68" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="69" spans="3:3">
       <c r="C69" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="71" spans="3:4">
       <c r="C71" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>375</v>
@@ -9569,12 +9624,12 @@
     </row>
     <row r="72" spans="3:3">
       <c r="C72" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="73" spans="3:4">
       <c r="C73" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>375</v>
@@ -9582,27 +9637,27 @@
     </row>
     <row r="74" spans="3:3">
       <c r="C74" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="75" spans="3:3">
       <c r="C75" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="76" spans="3:3">
       <c r="C76" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="77" spans="3:3">
       <c r="C77" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="78" spans="3:4">
       <c r="C78" s="2" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>375</v>
@@ -9610,7 +9665,7 @@
     </row>
     <row r="79" spans="3:4">
       <c r="C79" s="2" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>375</v>
@@ -9618,87 +9673,87 @@
     </row>
     <row r="80" spans="3:3">
       <c r="C80" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" s="3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="97" spans="3:3">
@@ -9713,17 +9768,17 @@
     </row>
     <row r="99" spans="3:3">
       <c r="C99" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="100" spans="3:3">
       <c r="C100" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="101" spans="3:3">
       <c r="C101" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
   </sheetData>

--- a/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Create_PCase_Positive_Alien_POE3.xlsx
+++ b/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Create_PCase_Positive_Alien_POE3.xlsx
@@ -2638,8 +2638,8 @@
   <sheetPr/>
   <dimension ref="A1:H315"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A277" workbookViewId="0">
-      <selection activeCell="B310" sqref="B310:G310"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -2807,7 +2807,7 @@
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>

--- a/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Create_PCase_Positive_Alien_POE3.xlsx
+++ b/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Create_PCase_Positive_Alien_POE3.xlsx
@@ -2638,7 +2638,7 @@
   <sheetPr/>
   <dimension ref="A1:H315"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
